--- a/3. outputs/Stock-recruit data/Bayesian_state-space_smolt-production_estimated_time_series.xlsx
+++ b/3. outputs/Stock-recruit data/Bayesian_state-space_smolt-production_estimated_time_series.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -596,6 +596,40 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Smolt year sum of posterior estimates for O1 &amp; O2 (see above)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>smolt year</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Smolt year sum of posterior estimates for BO1 &amp; BO2 (see above)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>smolt year</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -603,7 +637,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1477"/>
+  <dimension ref="A1:K1705"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -61182,6 +61216,9354 @@
         <v>0.2637442773982638</v>
       </c>
     </row>
+    <row r="1478">
+      <c r="A1478" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1478" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1478">
+        <v>1978</v>
+      </c>
+      <c r="D1478" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1478">
+        <v>3604688.78028787</v>
+      </c>
+      <c r="F1478">
+        <v>4373174.231857584</v>
+      </c>
+      <c r="G1478">
+        <v>6053752.216844895</v>
+      </c>
+      <c r="H1478">
+        <v>8100783.934278969</v>
+      </c>
+      <c r="I1478">
+        <v>9475217.320714407</v>
+      </c>
+      <c r="J1478">
+        <v>15.60655808794139</v>
+      </c>
+      <c r="K1478">
+        <v>0.2441239606937241</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1479" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1479">
+        <v>1978</v>
+      </c>
+      <c r="D1479" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1479">
+        <v>17215853.98262526</v>
+      </c>
+      <c r="F1479">
+        <v>20907949.28226247</v>
+      </c>
+      <c r="G1479">
+        <v>28952883.35169218</v>
+      </c>
+      <c r="H1479">
+        <v>38827853.27896473</v>
+      </c>
+      <c r="I1479">
+        <v>45417481.65164877</v>
+      </c>
+      <c r="J1479">
+        <v>17.17265455067666</v>
+      </c>
+      <c r="K1479">
+        <v>0.2447237009010801</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1480" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1480">
+        <v>1979</v>
+      </c>
+      <c r="D1480" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1480">
+        <v>1558592.573552863</v>
+      </c>
+      <c r="F1480">
+        <v>1885631.966126647</v>
+      </c>
+      <c r="G1480">
+        <v>2661106.943324278</v>
+      </c>
+      <c r="H1480">
+        <v>3815173.42123702</v>
+      </c>
+      <c r="I1480">
+        <v>4634393.32119355</v>
+      </c>
+      <c r="J1480">
+        <v>14.79685891563476</v>
+      </c>
+      <c r="K1480">
+        <v>0.2799746616927192</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1481" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1481">
+        <v>1979</v>
+      </c>
+      <c r="D1481" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1481">
+        <v>5171457.280690479</v>
+      </c>
+      <c r="F1481">
+        <v>6247449.254324457</v>
+      </c>
+      <c r="G1481">
+        <v>8814688.669332955</v>
+      </c>
+      <c r="H1481">
+        <v>12647953.53965016</v>
+      </c>
+      <c r="I1481">
+        <v>15385108.30633886</v>
+      </c>
+      <c r="J1481">
+        <v>15.99471180703059</v>
+      </c>
+      <c r="K1481">
+        <v>0.2801632810893271</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1482" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1482">
+        <v>1980</v>
+      </c>
+      <c r="D1482" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1482">
+        <v>3155473.443540704</v>
+      </c>
+      <c r="F1482">
+        <v>3950795.634132594</v>
+      </c>
+      <c r="G1482">
+        <v>5611463.297554005</v>
+      </c>
+      <c r="H1482">
+        <v>7622420.254583249</v>
+      </c>
+      <c r="I1482">
+        <v>9006800.471561648</v>
+      </c>
+      <c r="J1482">
+        <v>15.52499339252598</v>
+      </c>
+      <c r="K1482">
+        <v>0.2627094310740561</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1483" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1483">
+        <v>1980</v>
+      </c>
+      <c r="D1483" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1483">
+        <v>15640524.44802042</v>
+      </c>
+      <c r="F1483">
+        <v>19708851.10493487</v>
+      </c>
+      <c r="G1483">
+        <v>28029018.15718197</v>
+      </c>
+      <c r="H1483">
+        <v>38033603.90089752</v>
+      </c>
+      <c r="I1483">
+        <v>44848532.06035837</v>
+      </c>
+      <c r="J1483">
+        <v>17.13388266269319</v>
+      </c>
+      <c r="K1483">
+        <v>0.2631820826419022</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1484" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1484">
+        <v>1981</v>
+      </c>
+      <c r="D1484" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1484">
+        <v>1895568.104339221</v>
+      </c>
+      <c r="F1484">
+        <v>2755931.565828163</v>
+      </c>
+      <c r="G1484">
+        <v>4511077.60515606</v>
+      </c>
+      <c r="H1484">
+        <v>6816186.221408029</v>
+      </c>
+      <c r="I1484">
+        <v>8356265.616147898</v>
+      </c>
+      <c r="J1484">
+        <v>15.29240707698213</v>
+      </c>
+      <c r="K1484">
+        <v>0.3724080875870568</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1485" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1485">
+        <v>1981</v>
+      </c>
+      <c r="D1485" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1485">
+        <v>5993080.416478883</v>
+      </c>
+      <c r="F1485">
+        <v>8688139.593947545</v>
+      </c>
+      <c r="G1485">
+        <v>14254087.17499193</v>
+      </c>
+      <c r="H1485">
+        <v>21524051.55237168</v>
+      </c>
+      <c r="I1485">
+        <v>26411562.99831225</v>
+      </c>
+      <c r="J1485">
+        <v>16.44138254956086</v>
+      </c>
+      <c r="K1485">
+        <v>0.3725100518683718</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1486" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1486">
+        <v>1982</v>
+      </c>
+      <c r="D1486" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1486">
+        <v>3454919.95305049</v>
+      </c>
+      <c r="F1486">
+        <v>4303580.22130188</v>
+      </c>
+      <c r="G1486">
+        <v>6098678.418143815</v>
+      </c>
+      <c r="H1486">
+        <v>8310194.680025295</v>
+      </c>
+      <c r="I1486">
+        <v>9803400.412434964</v>
+      </c>
+      <c r="J1486">
+        <v>15.61057342698754</v>
+      </c>
+      <c r="K1486">
+        <v>0.2655090746792949</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1487" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1487">
+        <v>1982</v>
+      </c>
+      <c r="D1487" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1487">
+        <v>14584024.65237324</v>
+      </c>
+      <c r="F1487">
+        <v>18065520.03239002</v>
+      </c>
+      <c r="G1487">
+        <v>25501104.53605106</v>
+      </c>
+      <c r="H1487">
+        <v>34823531.70642119</v>
+      </c>
+      <c r="I1487">
+        <v>40992844.9962656</v>
+      </c>
+      <c r="J1487">
+        <v>17.0437065646492</v>
+      </c>
+      <c r="K1487">
+        <v>0.2663832436266306</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1488" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1488">
+        <v>1983</v>
+      </c>
+      <c r="D1488" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1488">
+        <v>3642107.312566113</v>
+      </c>
+      <c r="F1488">
+        <v>4583839.217884159</v>
+      </c>
+      <c r="G1488">
+        <v>6688483.829479074</v>
+      </c>
+      <c r="H1488">
+        <v>9326973.173356142</v>
+      </c>
+      <c r="I1488">
+        <v>11039123.52012625</v>
+      </c>
+      <c r="J1488">
+        <v>15.70101421310023</v>
+      </c>
+      <c r="K1488">
+        <v>0.2860634927705507</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1489" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1489">
+        <v>1983</v>
+      </c>
+      <c r="D1489" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1489">
+        <v>9312499.266180245</v>
+      </c>
+      <c r="F1489">
+        <v>11714082.54462264</v>
+      </c>
+      <c r="G1489">
+        <v>17119956.97282559</v>
+      </c>
+      <c r="H1489">
+        <v>23910304.03052064</v>
+      </c>
+      <c r="I1489">
+        <v>28255311.27836993</v>
+      </c>
+      <c r="J1489">
+        <v>16.64041977439675</v>
+      </c>
+      <c r="K1489">
+        <v>0.2862704481518435</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1490" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1490">
+        <v>1984</v>
+      </c>
+      <c r="D1490" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1490">
+        <v>3241672.77454587</v>
+      </c>
+      <c r="F1490">
+        <v>4004692.204157272</v>
+      </c>
+      <c r="G1490">
+        <v>5645594.35715723</v>
+      </c>
+      <c r="H1490">
+        <v>7703734.628923175</v>
+      </c>
+      <c r="I1490">
+        <v>9108091.598833995</v>
+      </c>
+      <c r="J1490">
+        <v>15.53723993659675</v>
+      </c>
+      <c r="K1490">
+        <v>0.2612210815331733</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1491" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1491">
+        <v>1984</v>
+      </c>
+      <c r="D1491" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1491">
+        <v>12009014.62431328</v>
+      </c>
+      <c r="F1491">
+        <v>14798694.38681</v>
+      </c>
+      <c r="G1491">
+        <v>20864782.12317134</v>
+      </c>
+      <c r="H1491">
+        <v>28537239.99242529</v>
+      </c>
+      <c r="I1491">
+        <v>33591984.05905686</v>
+      </c>
+      <c r="J1491">
+        <v>16.84456459183721</v>
+      </c>
+      <c r="K1491">
+        <v>0.261846057719602</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1492" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1492">
+        <v>1985</v>
+      </c>
+      <c r="D1492" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1492">
+        <v>2083441.071391299</v>
+      </c>
+      <c r="F1492">
+        <v>2890427.931647038</v>
+      </c>
+      <c r="G1492">
+        <v>4593615.992690504</v>
+      </c>
+      <c r="H1492">
+        <v>6733842.172192137</v>
+      </c>
+      <c r="I1492">
+        <v>8140492.262500575</v>
+      </c>
+      <c r="J1492">
+        <v>15.31552953301045</v>
+      </c>
+      <c r="K1492">
+        <v>0.3473444423670985</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1493" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1493">
+        <v>1985</v>
+      </c>
+      <c r="D1493" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1493">
+        <v>6102837.721989431</v>
+      </c>
+      <c r="F1493">
+        <v>8486849.875461074</v>
+      </c>
+      <c r="G1493">
+        <v>13540890.5939149</v>
+      </c>
+      <c r="H1493">
+        <v>19822441.93111106</v>
+      </c>
+      <c r="I1493">
+        <v>24028681.78222943</v>
+      </c>
+      <c r="J1493">
+        <v>16.39610517396789</v>
+      </c>
+      <c r="K1493">
+        <v>0.3481087394562727</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1494" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1494">
+        <v>1986</v>
+      </c>
+      <c r="D1494" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1494">
+        <v>3153677.071917635</v>
+      </c>
+      <c r="F1494">
+        <v>3876468.019761722</v>
+      </c>
+      <c r="G1494">
+        <v>5514639.480134083</v>
+      </c>
+      <c r="H1494">
+        <v>7526833.240895299</v>
+      </c>
+      <c r="I1494">
+        <v>8926690.052455649</v>
+      </c>
+      <c r="J1494">
+        <v>15.51213055207696</v>
+      </c>
+      <c r="K1494">
+        <v>0.267665355219881</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1495" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1495">
+        <v>1986</v>
+      </c>
+      <c r="D1495" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1495">
+        <v>15121905.96881831</v>
+      </c>
+      <c r="F1495">
+        <v>18580785.01346319</v>
+      </c>
+      <c r="G1495">
+        <v>26406826.68697476</v>
+      </c>
+      <c r="H1495">
+        <v>36103022.24320825</v>
+      </c>
+      <c r="I1495">
+        <v>42914334.66359534</v>
+      </c>
+      <c r="J1495">
+        <v>17.0779028125231</v>
+      </c>
+      <c r="K1495">
+        <v>0.2684848519378611</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1496" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1496">
+        <v>1987</v>
+      </c>
+      <c r="D1496" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1496">
+        <v>2898468.606474066</v>
+      </c>
+      <c r="F1496">
+        <v>3595690.038060198</v>
+      </c>
+      <c r="G1496">
+        <v>5089261.218358899</v>
+      </c>
+      <c r="H1496">
+        <v>6975288.224432026</v>
+      </c>
+      <c r="I1496">
+        <v>8299676.339865731</v>
+      </c>
+      <c r="J1496">
+        <v>15.43361108184182</v>
+      </c>
+      <c r="K1496">
+        <v>0.2655031120882616</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1497" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1497">
+        <v>1987</v>
+      </c>
+      <c r="D1497" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1497">
+        <v>11201107.53353779</v>
+      </c>
+      <c r="F1497">
+        <v>13902863.03594246</v>
+      </c>
+      <c r="G1497">
+        <v>19652677.78485476</v>
+      </c>
+      <c r="H1497">
+        <v>26995839.01719792</v>
+      </c>
+      <c r="I1497">
+        <v>32103577.31215933</v>
+      </c>
+      <c r="J1497">
+        <v>16.78623149679596</v>
+      </c>
+      <c r="K1497">
+        <v>0.265733298744744</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1498" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1498">
+        <v>1988</v>
+      </c>
+      <c r="D1498" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1498">
+        <v>2982126.263660958</v>
+      </c>
+      <c r="F1498">
+        <v>3702601.630772098</v>
+      </c>
+      <c r="G1498">
+        <v>5167150.681091912</v>
+      </c>
+      <c r="H1498">
+        <v>6980116.33366055</v>
+      </c>
+      <c r="I1498">
+        <v>8271094.274077217</v>
+      </c>
+      <c r="J1498">
+        <v>15.44706047604222</v>
+      </c>
+      <c r="K1498">
+        <v>0.2581517724056039</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1499" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1499">
+        <v>1988</v>
+      </c>
+      <c r="D1499" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1499">
+        <v>20183176.97369469</v>
+      </c>
+      <c r="F1499">
+        <v>24958582.29556295</v>
+      </c>
+      <c r="G1499">
+        <v>34845390.33711782</v>
+      </c>
+      <c r="H1499">
+        <v>47087185.72456448</v>
+      </c>
+      <c r="I1499">
+        <v>55763199.75657029</v>
+      </c>
+      <c r="J1499">
+        <v>17.35620813947702</v>
+      </c>
+      <c r="K1499">
+        <v>0.2582401973915014</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1500" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1500">
+        <v>1989</v>
+      </c>
+      <c r="D1500" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1500">
+        <v>2738793.425790653</v>
+      </c>
+      <c r="F1500">
+        <v>3449188.633018254</v>
+      </c>
+      <c r="G1500">
+        <v>4951523.954433</v>
+      </c>
+      <c r="H1500">
+        <v>6993392.160908217</v>
+      </c>
+      <c r="I1500">
+        <v>8515430.379320385</v>
+      </c>
+      <c r="J1500">
+        <v>15.4085652314913</v>
+      </c>
+      <c r="K1500">
+        <v>0.2858761276274683</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1501" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1501">
+        <v>1989</v>
+      </c>
+      <c r="D1501" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1501">
+        <v>9859143.182450151</v>
+      </c>
+      <c r="F1501">
+        <v>12448870.5009107</v>
+      </c>
+      <c r="G1501">
+        <v>17881099.33004244</v>
+      </c>
+      <c r="H1501">
+        <v>25338212.06439928</v>
+      </c>
+      <c r="I1501">
+        <v>30722553.00582326</v>
+      </c>
+      <c r="J1501">
+        <v>16.69297751679994</v>
+      </c>
+      <c r="K1501">
+        <v>0.2859869262072255</v>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1502" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1502">
+        <v>1990</v>
+      </c>
+      <c r="D1502" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1502">
+        <v>3510563.812934092</v>
+      </c>
+      <c r="F1502">
+        <v>4644093.694199167</v>
+      </c>
+      <c r="G1502">
+        <v>6924690.112980645</v>
+      </c>
+      <c r="H1502">
+        <v>9713521.368424138</v>
+      </c>
+      <c r="I1502">
+        <v>11401546.40144833</v>
+      </c>
+      <c r="J1502">
+        <v>15.72761657401066</v>
+      </c>
+      <c r="K1502">
+        <v>0.3011297503322428</v>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1503" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1503">
+        <v>1990</v>
+      </c>
+      <c r="D1503" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1503">
+        <v>14985931.7860482</v>
+      </c>
+      <c r="F1503">
+        <v>19902767.8181207</v>
+      </c>
+      <c r="G1503">
+        <v>29730047.13427914</v>
+      </c>
+      <c r="H1503">
+        <v>41678403.44574598</v>
+      </c>
+      <c r="I1503">
+        <v>48896681.52342602</v>
+      </c>
+      <c r="J1503">
+        <v>17.18374432792675</v>
+      </c>
+      <c r="K1503">
+        <v>0.3013461567058816</v>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1504" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1504">
+        <v>1991</v>
+      </c>
+      <c r="D1504" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1504">
+        <v>4060255.646173082</v>
+      </c>
+      <c r="F1504">
+        <v>5011478.65303355</v>
+      </c>
+      <c r="G1504">
+        <v>7131154.876078879</v>
+      </c>
+      <c r="H1504">
+        <v>9719706.403376892</v>
+      </c>
+      <c r="I1504">
+        <v>11405518.08364839</v>
+      </c>
+      <c r="J1504">
+        <v>15.76740917992371</v>
+      </c>
+      <c r="K1504">
+        <v>0.2640170086293772</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1505" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1505">
+        <v>1991</v>
+      </c>
+      <c r="D1505" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1505">
+        <v>15061063.60265232</v>
+      </c>
+      <c r="F1505">
+        <v>18544734.82576364</v>
+      </c>
+      <c r="G1505">
+        <v>26420179.68129235</v>
+      </c>
+      <c r="H1505">
+        <v>36051545.45858328</v>
+      </c>
+      <c r="I1505">
+        <v>42317199.68837839</v>
+      </c>
+      <c r="J1505">
+        <v>17.07721287552974</v>
+      </c>
+      <c r="K1505">
+        <v>0.2641214023793783</v>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1506" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1506">
+        <v>1992</v>
+      </c>
+      <c r="D1506" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1506">
+        <v>2291711.732208623</v>
+      </c>
+      <c r="F1506">
+        <v>2817607.539335721</v>
+      </c>
+      <c r="G1506">
+        <v>3868009.916809874</v>
+      </c>
+      <c r="H1506">
+        <v>5303466.985008101</v>
+      </c>
+      <c r="I1506">
+        <v>6327961.125046089</v>
+      </c>
+      <c r="J1506">
+        <v>15.16697177624097</v>
+      </c>
+      <c r="K1506">
+        <v>0.2539410853617589</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1507" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1507">
+        <v>1992</v>
+      </c>
+      <c r="D1507" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1507">
+        <v>14389708.41682731</v>
+      </c>
+      <c r="F1507">
+        <v>17686088.19586121</v>
+      </c>
+      <c r="G1507">
+        <v>24317405.67907301</v>
+      </c>
+      <c r="H1507">
+        <v>33329598.208744</v>
+      </c>
+      <c r="I1507">
+        <v>39821551.6906178</v>
+      </c>
+      <c r="J1507">
+        <v>17.00464645080935</v>
+      </c>
+      <c r="K1507">
+        <v>0.2540402146968342</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1508" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1508">
+        <v>1993</v>
+      </c>
+      <c r="D1508" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1508">
+        <v>3063513.528415847</v>
+      </c>
+      <c r="F1508">
+        <v>3828959.050946465</v>
+      </c>
+      <c r="G1508">
+        <v>5535202.778891847</v>
+      </c>
+      <c r="H1508">
+        <v>7718702.15052452</v>
+      </c>
+      <c r="I1508">
+        <v>9236770.811028231</v>
+      </c>
+      <c r="J1508">
+        <v>15.51526900246613</v>
+      </c>
+      <c r="K1508">
+        <v>0.2796757325585357</v>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1509" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1509">
+        <v>1993</v>
+      </c>
+      <c r="D1509" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1509">
+        <v>8038371.471183759</v>
+      </c>
+      <c r="F1509">
+        <v>10061168.99470719</v>
+      </c>
+      <c r="G1509">
+        <v>14539867.22366456</v>
+      </c>
+      <c r="H1509">
+        <v>20268424.75530463</v>
+      </c>
+      <c r="I1509">
+        <v>24254851.93058898</v>
+      </c>
+      <c r="J1509">
+        <v>16.48025593752173</v>
+      </c>
+      <c r="K1509">
+        <v>0.2797931900239941</v>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1510" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1510">
+        <v>1994</v>
+      </c>
+      <c r="D1510" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1510">
+        <v>1669726.2630388</v>
+      </c>
+      <c r="F1510">
+        <v>2375099.132784943</v>
+      </c>
+      <c r="G1510">
+        <v>3917681.242666386</v>
+      </c>
+      <c r="H1510">
+        <v>5858817.961323978</v>
+      </c>
+      <c r="I1510">
+        <v>7132402.533249719</v>
+      </c>
+      <c r="J1510">
+        <v>15.15087240690766</v>
+      </c>
+      <c r="K1510">
+        <v>0.3680255658450283</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1511" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1511">
+        <v>1994</v>
+      </c>
+      <c r="D1511" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1511">
+        <v>7013587.984543657</v>
+      </c>
+      <c r="F1511">
+        <v>9969843.037920784</v>
+      </c>
+      <c r="G1511">
+        <v>16422775.76805746</v>
+      </c>
+      <c r="H1511">
+        <v>24546644.96873233</v>
+      </c>
+      <c r="I1511">
+        <v>29947916.18498259</v>
+      </c>
+      <c r="J1511">
+        <v>16.5842715635707</v>
+      </c>
+      <c r="K1511">
+        <v>0.3680220623660753</v>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1512" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1512">
+        <v>1995</v>
+      </c>
+      <c r="D1512" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1512">
+        <v>2615749.459026219</v>
+      </c>
+      <c r="F1512">
+        <v>3634530.291405601</v>
+      </c>
+      <c r="G1512">
+        <v>5784018.188656671</v>
+      </c>
+      <c r="H1512">
+        <v>8308706.422118472</v>
+      </c>
+      <c r="I1512">
+        <v>9934824.863195406</v>
+      </c>
+      <c r="J1512">
+        <v>15.53962699564257</v>
+      </c>
+      <c r="K1512">
+        <v>0.3440900448684032</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1513" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1513">
+        <v>1995</v>
+      </c>
+      <c r="D1513" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1513">
+        <v>7165694.605665726</v>
+      </c>
+      <c r="F1513">
+        <v>9987090.389869623</v>
+      </c>
+      <c r="G1513">
+        <v>15874579.3072835</v>
+      </c>
+      <c r="H1513">
+        <v>22861801.40137162</v>
+      </c>
+      <c r="I1513">
+        <v>27335133.84580361</v>
+      </c>
+      <c r="J1513">
+        <v>16.54916214054496</v>
+      </c>
+      <c r="K1513">
+        <v>0.3442787428212791</v>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1514" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1514">
+        <v>1996</v>
+      </c>
+      <c r="D1514" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1514">
+        <v>3378760.755281187</v>
+      </c>
+      <c r="F1514">
+        <v>4205879.085515307</v>
+      </c>
+      <c r="G1514">
+        <v>6125617.984160515</v>
+      </c>
+      <c r="H1514">
+        <v>8426473.280686324</v>
+      </c>
+      <c r="I1514">
+        <v>9951302.498251026</v>
+      </c>
+      <c r="J1514">
+        <v>15.60782335173705</v>
+      </c>
+      <c r="K1514">
+        <v>0.2770085897167049</v>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1515" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1515">
+        <v>1996</v>
+      </c>
+      <c r="D1515" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1515">
+        <v>12720963.37602049</v>
+      </c>
+      <c r="F1515">
+        <v>15853716.12555322</v>
+      </c>
+      <c r="G1515">
+        <v>23080256.15477967</v>
+      </c>
+      <c r="H1515">
+        <v>31739367.97507722</v>
+      </c>
+      <c r="I1515">
+        <v>37607784.99947188</v>
+      </c>
+      <c r="J1515">
+        <v>16.93412069522032</v>
+      </c>
+      <c r="K1515">
+        <v>0.2773169046066017</v>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1516" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1516">
+        <v>1997</v>
+      </c>
+      <c r="D1516" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1516">
+        <v>2997651.137147253</v>
+      </c>
+      <c r="F1516">
+        <v>3734918.767792696</v>
+      </c>
+      <c r="G1516">
+        <v>5127416.713314496</v>
+      </c>
+      <c r="H1516">
+        <v>6914957.008165014</v>
+      </c>
+      <c r="I1516">
+        <v>8082038.006310534</v>
+      </c>
+      <c r="J1516">
+        <v>15.44288018492291</v>
+      </c>
+      <c r="K1516">
+        <v>0.2464204778920366</v>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1517" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1517">
+        <v>1997</v>
+      </c>
+      <c r="D1517" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1517">
+        <v>11991208.16884638</v>
+      </c>
+      <c r="F1517">
+        <v>14917519.33899953</v>
+      </c>
+      <c r="G1517">
+        <v>20486226.98308187</v>
+      </c>
+      <c r="H1517">
+        <v>27604516.39954559</v>
+      </c>
+      <c r="I1517">
+        <v>32221027.67364097</v>
+      </c>
+      <c r="J1517">
+        <v>16.82786652164124</v>
+      </c>
+      <c r="K1517">
+        <v>0.2465488881712778</v>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1518" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1518">
+        <v>1998</v>
+      </c>
+      <c r="D1518" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1518">
+        <v>3143246.83817566</v>
+      </c>
+      <c r="F1518">
+        <v>3996230.382280395</v>
+      </c>
+      <c r="G1518">
+        <v>5737160.223772919</v>
+      </c>
+      <c r="H1518">
+        <v>8026041.635434434</v>
+      </c>
+      <c r="I1518">
+        <v>9657006.774472501</v>
+      </c>
+      <c r="J1518">
+        <v>15.55218715039017</v>
+      </c>
+      <c r="K1518">
+        <v>0.283312381115248</v>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1519" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1519">
+        <v>1998</v>
+      </c>
+      <c r="D1519" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1519">
+        <v>8037533.432905511</v>
+      </c>
+      <c r="F1519">
+        <v>10262250.07083307</v>
+      </c>
+      <c r="G1519">
+        <v>14750382.29855889</v>
+      </c>
+      <c r="H1519">
+        <v>20612951.93062269</v>
+      </c>
+      <c r="I1519">
+        <v>24917672.88606589</v>
+      </c>
+      <c r="J1519">
+        <v>16.49553128954926</v>
+      </c>
+      <c r="K1519">
+        <v>0.2835870233955509</v>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1520" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1520">
+        <v>1999</v>
+      </c>
+      <c r="D1520" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1520">
+        <v>3559523.599767067</v>
+      </c>
+      <c r="F1520">
+        <v>4359458.759923303</v>
+      </c>
+      <c r="G1520">
+        <v>6158951.645267801</v>
+      </c>
+      <c r="H1520">
+        <v>8254923.74312307</v>
+      </c>
+      <c r="I1520">
+        <v>9594632.232713846</v>
+      </c>
+      <c r="J1520">
+        <v>15.61631858860696</v>
+      </c>
+      <c r="K1520">
+        <v>0.25440895728508</v>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1521" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1521">
+        <v>1999</v>
+      </c>
+      <c r="D1521" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1521">
+        <v>10504960.18437605</v>
+      </c>
+      <c r="F1521">
+        <v>12921642.86356074</v>
+      </c>
+      <c r="G1521">
+        <v>18224926.79626729</v>
+      </c>
+      <c r="H1521">
+        <v>24421688.44193858</v>
+      </c>
+      <c r="I1521">
+        <v>28373136.2809538</v>
+      </c>
+      <c r="J1521">
+        <v>16.70176410025518</v>
+      </c>
+      <c r="K1521">
+        <v>0.2545839996859636</v>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1522" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1522">
+        <v>2000</v>
+      </c>
+      <c r="D1522" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1522">
+        <v>2388428.017653314</v>
+      </c>
+      <c r="F1522">
+        <v>3125907.70240099</v>
+      </c>
+      <c r="G1522">
+        <v>4787817.715198824</v>
+      </c>
+      <c r="H1522">
+        <v>6907979.24379742</v>
+      </c>
+      <c r="I1522">
+        <v>8443746.497422118</v>
+      </c>
+      <c r="J1522">
+        <v>15.36378025046464</v>
+      </c>
+      <c r="K1522">
+        <v>0.3201931489938873</v>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1523" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1523">
+        <v>2000</v>
+      </c>
+      <c r="D1523" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1523">
+        <v>7026960.598645626</v>
+      </c>
+      <c r="F1523">
+        <v>9237910.269866314</v>
+      </c>
+      <c r="G1523">
+        <v>14129243.33058495</v>
+      </c>
+      <c r="H1523">
+        <v>20395135.42614212</v>
+      </c>
+      <c r="I1523">
+        <v>24869600.62056271</v>
+      </c>
+      <c r="J1523">
+        <v>16.44578962499547</v>
+      </c>
+      <c r="K1523">
+        <v>0.3202347611191375</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1524" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1524">
+        <v>2001</v>
+      </c>
+      <c r="D1524" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1524">
+        <v>3491367.330831427</v>
+      </c>
+      <c r="F1524">
+        <v>4309910.262037911</v>
+      </c>
+      <c r="G1524">
+        <v>6078902.764371753</v>
+      </c>
+      <c r="H1524">
+        <v>8236263.717146586</v>
+      </c>
+      <c r="I1524">
+        <v>9589355.060863838</v>
+      </c>
+      <c r="J1524">
+        <v>15.60703721252419</v>
+      </c>
+      <c r="K1524">
+        <v>0.2553544466511463</v>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1525" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1525">
+        <v>2001</v>
+      </c>
+      <c r="D1525" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1525">
+        <v>9928056.458856499</v>
+      </c>
+      <c r="F1525">
+        <v>12197318.07923074</v>
+      </c>
+      <c r="G1525">
+        <v>17199731.5220959</v>
+      </c>
+      <c r="H1525">
+        <v>23342426.50555361</v>
+      </c>
+      <c r="I1525">
+        <v>27316120.95764372</v>
+      </c>
+      <c r="J1525">
+        <v>16.64818256301597</v>
+      </c>
+      <c r="K1525">
+        <v>0.2564892353345636</v>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1526" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1526">
+        <v>2002</v>
+      </c>
+      <c r="D1526" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1526">
+        <v>2250025.442805063</v>
+      </c>
+      <c r="F1526">
+        <v>2805906.885660468</v>
+      </c>
+      <c r="G1526">
+        <v>4004191.050373072</v>
+      </c>
+      <c r="H1526">
+        <v>5692384.072957922</v>
+      </c>
+      <c r="I1526">
+        <v>6831639.618247145</v>
+      </c>
+      <c r="J1526">
+        <v>15.19908318579759</v>
+      </c>
+      <c r="K1526">
+        <v>0.2832999970073354</v>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1527" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1527">
+        <v>2002</v>
+      </c>
+      <c r="D1527" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1527">
+        <v>6686350.234121327</v>
+      </c>
+      <c r="F1527">
+        <v>8363715.953956902</v>
+      </c>
+      <c r="G1527">
+        <v>11952943.60321861</v>
+      </c>
+      <c r="H1527">
+        <v>16908208.53283715</v>
+      </c>
+      <c r="I1527">
+        <v>20392326.08103702</v>
+      </c>
+      <c r="J1527">
+        <v>16.29044525049409</v>
+      </c>
+      <c r="K1527">
+        <v>0.2831724536353429</v>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1528" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1528">
+        <v>2003</v>
+      </c>
+      <c r="D1528" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1528">
+        <v>2611275.842843294</v>
+      </c>
+      <c r="F1528">
+        <v>3930689.98006021</v>
+      </c>
+      <c r="G1528">
+        <v>6202073.586108075</v>
+      </c>
+      <c r="H1528">
+        <v>8745430.870184468</v>
+      </c>
+      <c r="I1528">
+        <v>10510476.5115695</v>
+      </c>
+      <c r="J1528">
+        <v>15.5988864647218</v>
+      </c>
+      <c r="K1528">
+        <v>0.3531491735978719</v>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1529" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1529">
+        <v>2003</v>
+      </c>
+      <c r="D1529" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1529">
+        <v>8306191.24116136</v>
+      </c>
+      <c r="F1529">
+        <v>12489616.70899513</v>
+      </c>
+      <c r="G1529">
+        <v>19778395.77062809</v>
+      </c>
+      <c r="H1529">
+        <v>27967391.97377174</v>
+      </c>
+      <c r="I1529">
+        <v>33545017.05490458</v>
+      </c>
+      <c r="J1529">
+        <v>16.75749017108544</v>
+      </c>
+      <c r="K1529">
+        <v>0.3541280624334328</v>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1530" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1530">
+        <v>2004</v>
+      </c>
+      <c r="D1530" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1530">
+        <v>3361906.844430781</v>
+      </c>
+      <c r="F1530">
+        <v>4442021.261526572</v>
+      </c>
+      <c r="G1530">
+        <v>6754676.907589225</v>
+      </c>
+      <c r="H1530">
+        <v>9386036.330788294</v>
+      </c>
+      <c r="I1530">
+        <v>11055426.46566892</v>
+      </c>
+      <c r="J1530">
+        <v>15.69842340720202</v>
+      </c>
+      <c r="K1530">
+        <v>0.3069033291135945</v>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1531" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1531">
+        <v>2004</v>
+      </c>
+      <c r="D1531" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1531">
+        <v>10473522.83785834</v>
+      </c>
+      <c r="F1531">
+        <v>13934253.6499665</v>
+      </c>
+      <c r="G1531">
+        <v>21302898.6023586</v>
+      </c>
+      <c r="H1531">
+        <v>30562313.43762831</v>
+      </c>
+      <c r="I1531">
+        <v>36666780.48438483</v>
+      </c>
+      <c r="J1531">
+        <v>16.85292945811163</v>
+      </c>
+      <c r="K1531">
+        <v>0.3201742205831955</v>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1532" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1532">
+        <v>2005</v>
+      </c>
+      <c r="D1532" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1532">
+        <v>3127936.793388288</v>
+      </c>
+      <c r="F1532">
+        <v>3844323.424172133</v>
+      </c>
+      <c r="G1532">
+        <v>5435272.842564499</v>
+      </c>
+      <c r="H1532">
+        <v>7483516.527593336</v>
+      </c>
+      <c r="I1532">
+        <v>8833531.220076784</v>
+      </c>
+      <c r="J1532">
+        <v>15.49969107072133</v>
+      </c>
+      <c r="K1532">
+        <v>0.2640500408460624</v>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1533" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1533">
+        <v>2005</v>
+      </c>
+      <c r="D1533" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1533">
+        <v>8989966.600562876</v>
+      </c>
+      <c r="F1533">
+        <v>11160947.49632051</v>
+      </c>
+      <c r="G1533">
+        <v>15971788.06341965</v>
+      </c>
+      <c r="H1533">
+        <v>22709064.70930457</v>
+      </c>
+      <c r="I1533">
+        <v>27386237.28298141</v>
+      </c>
+      <c r="J1533">
+        <v>16.58172996538302</v>
+      </c>
+      <c r="K1533">
+        <v>0.2842336140416355</v>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1534" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1534">
+        <v>2006</v>
+      </c>
+      <c r="D1534" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1534">
+        <v>2388850.862080136</v>
+      </c>
+      <c r="F1534">
+        <v>2895152.793729521</v>
+      </c>
+      <c r="G1534">
+        <v>4055622.832356523</v>
+      </c>
+      <c r="H1534">
+        <v>5673825.264361181</v>
+      </c>
+      <c r="I1534">
+        <v>6797451.330352305</v>
+      </c>
+      <c r="J1534">
+        <v>15.21418181436731</v>
+      </c>
+      <c r="K1534">
+        <v>0.268272540332126</v>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1535" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1535">
+        <v>2006</v>
+      </c>
+      <c r="D1535" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1535">
+        <v>7257531.917840382</v>
+      </c>
+      <c r="F1535">
+        <v>8836467.458462898</v>
+      </c>
+      <c r="G1535">
+        <v>12355740.32917542</v>
+      </c>
+      <c r="H1535">
+        <v>17258857.34035388</v>
+      </c>
+      <c r="I1535">
+        <v>20785455.64272634</v>
+      </c>
+      <c r="J1535">
+        <v>16.32872598667921</v>
+      </c>
+      <c r="K1535">
+        <v>0.2683260339954123</v>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1536" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1536">
+        <v>2007</v>
+      </c>
+      <c r="D1536" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1536">
+        <v>2483995.9113203</v>
+      </c>
+      <c r="F1536">
+        <v>3175952.665280759</v>
+      </c>
+      <c r="G1536">
+        <v>4592570.784689229</v>
+      </c>
+      <c r="H1536">
+        <v>6491151.185775398</v>
+      </c>
+      <c r="I1536">
+        <v>7765479.96160982</v>
+      </c>
+      <c r="J1536">
+        <v>15.33173195536867</v>
+      </c>
+      <c r="K1536">
+        <v>0.2879611214974848</v>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1537" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1537">
+        <v>2007</v>
+      </c>
+      <c r="D1537" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1537">
+        <v>5816108.194423217</v>
+      </c>
+      <c r="F1537">
+        <v>7415313.570655767</v>
+      </c>
+      <c r="G1537">
+        <v>10748308.43112561</v>
+      </c>
+      <c r="H1537">
+        <v>15201127.68982019</v>
+      </c>
+      <c r="I1537">
+        <v>18157347.81923275</v>
+      </c>
+      <c r="J1537">
+        <v>16.1814501555084</v>
+      </c>
+      <c r="K1537">
+        <v>0.2879426615533843</v>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1538" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1538">
+        <v>2008</v>
+      </c>
+      <c r="D1538" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1538">
+        <v>2128291.170473749</v>
+      </c>
+      <c r="F1538">
+        <v>2904076.558437589</v>
+      </c>
+      <c r="G1538">
+        <v>4339698.840999784</v>
+      </c>
+      <c r="H1538">
+        <v>6191340.738522095</v>
+      </c>
+      <c r="I1538">
+        <v>7462261.036595497</v>
+      </c>
+      <c r="J1538">
+        <v>15.26257208825424</v>
+      </c>
+      <c r="K1538">
+        <v>0.3199170021115272</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1539" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1539">
+        <v>2008</v>
+      </c>
+      <c r="D1539" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1539">
+        <v>7032426.119593047</v>
+      </c>
+      <c r="F1539">
+        <v>9577692.826882852</v>
+      </c>
+      <c r="G1539">
+        <v>14327961.36247451</v>
+      </c>
+      <c r="H1539">
+        <v>20419290.15439315</v>
+      </c>
+      <c r="I1539">
+        <v>24645776.50694985</v>
+      </c>
+      <c r="J1539">
+        <v>16.45656492291434</v>
+      </c>
+      <c r="K1539">
+        <v>0.3199997598060174</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1540" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1540">
+        <v>2009</v>
+      </c>
+      <c r="D1540" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1540">
+        <v>1916030.273788098</v>
+      </c>
+      <c r="F1540">
+        <v>2499734.802417845</v>
+      </c>
+      <c r="G1540">
+        <v>3744388.26633003</v>
+      </c>
+      <c r="H1540">
+        <v>5368264.025184977</v>
+      </c>
+      <c r="I1540">
+        <v>6543204.972986763</v>
+      </c>
+      <c r="J1540">
+        <v>15.12086504685309</v>
+      </c>
+      <c r="K1540">
+        <v>0.310075903409983</v>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1541" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1541">
+        <v>2009</v>
+      </c>
+      <c r="D1541" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1541">
+        <v>7623841.339186324</v>
+      </c>
+      <c r="F1541">
+        <v>9919798.601806996</v>
+      </c>
+      <c r="G1541">
+        <v>14867213.5881408</v>
+      </c>
+      <c r="H1541">
+        <v>21316988.9713667</v>
+      </c>
+      <c r="I1541">
+        <v>25936436.21586139</v>
+      </c>
+      <c r="J1541">
+        <v>16.4999871981985</v>
+      </c>
+      <c r="K1541">
+        <v>0.3101853222458213</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1542" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1542">
+        <v>2010</v>
+      </c>
+      <c r="D1542" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1542">
+        <v>3055161.942988681</v>
+      </c>
+      <c r="F1542">
+        <v>3812937.484391076</v>
+      </c>
+      <c r="G1542">
+        <v>5379866.326164502</v>
+      </c>
+      <c r="H1542">
+        <v>7401101.225412631</v>
+      </c>
+      <c r="I1542">
+        <v>8742159.289734025</v>
+      </c>
+      <c r="J1542">
+        <v>15.4900433970115</v>
+      </c>
+      <c r="K1542">
+        <v>0.2666996301301186</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1543" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1543">
+        <v>2010</v>
+      </c>
+      <c r="D1543" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1543">
+        <v>13308536.34771724</v>
+      </c>
+      <c r="F1543">
+        <v>16575871.9708451</v>
+      </c>
+      <c r="G1543">
+        <v>23461542.29784936</v>
+      </c>
+      <c r="H1543">
+        <v>32286806.18154923</v>
+      </c>
+      <c r="I1543">
+        <v>38016005.87704283</v>
+      </c>
+      <c r="J1543">
+        <v>16.96177327801655</v>
+      </c>
+      <c r="K1543">
+        <v>0.266893110577838</v>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1544" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1544">
+        <v>2011</v>
+      </c>
+      <c r="D1544" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1544">
+        <v>2464576.99467522</v>
+      </c>
+      <c r="F1544">
+        <v>3205036.377864641</v>
+      </c>
+      <c r="G1544">
+        <v>4636732.37786207</v>
+      </c>
+      <c r="H1544">
+        <v>6511335.132319285</v>
+      </c>
+      <c r="I1544">
+        <v>7767732.88827096</v>
+      </c>
+      <c r="J1544">
+        <v>15.33605200410845</v>
+      </c>
+      <c r="K1544">
+        <v>0.2896191772993308</v>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1545" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1545">
+        <v>2011</v>
+      </c>
+      <c r="D1545" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1545">
+        <v>6491178.696169891</v>
+      </c>
+      <c r="F1545">
+        <v>8449896.851127211</v>
+      </c>
+      <c r="G1545">
+        <v>12249255.81604593</v>
+      </c>
+      <c r="H1545">
+        <v>17189967.71383447</v>
+      </c>
+      <c r="I1545">
+        <v>20552158.60201114</v>
+      </c>
+      <c r="J1545">
+        <v>16.30668576192669</v>
+      </c>
+      <c r="K1545">
+        <v>0.2900312606442251</v>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1546" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1546">
+        <v>2012</v>
+      </c>
+      <c r="D1546" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1546">
+        <v>2486956.435654423</v>
+      </c>
+      <c r="F1546">
+        <v>3210662.434338707</v>
+      </c>
+      <c r="G1546">
+        <v>4568105.102346273</v>
+      </c>
+      <c r="H1546">
+        <v>6307264.619650466</v>
+      </c>
+      <c r="I1546">
+        <v>7535755.448231646</v>
+      </c>
+      <c r="J1546">
+        <v>15.32298103743341</v>
+      </c>
+      <c r="K1546">
+        <v>0.2814909112254259</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1547" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1547">
+        <v>2012</v>
+      </c>
+      <c r="D1547" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1547">
+        <v>8865838.117055962</v>
+      </c>
+      <c r="F1547">
+        <v>11439153.85823798</v>
+      </c>
+      <c r="G1547">
+        <v>16332441.10535593</v>
+      </c>
+      <c r="H1547">
+        <v>22515957.34510238</v>
+      </c>
+      <c r="I1547">
+        <v>26994076.33765417</v>
+      </c>
+      <c r="J1547">
+        <v>16.59618686651233</v>
+      </c>
+      <c r="K1547">
+        <v>0.2819207473777195</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1548" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1548">
+        <v>2013</v>
+      </c>
+      <c r="D1548" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1548">
+        <v>1935651.639483269</v>
+      </c>
+      <c r="F1548">
+        <v>3003186.693994575</v>
+      </c>
+      <c r="G1548">
+        <v>4763580.479094769</v>
+      </c>
+      <c r="H1548">
+        <v>6738049.459054351</v>
+      </c>
+      <c r="I1548">
+        <v>8020633.371264344</v>
+      </c>
+      <c r="J1548">
+        <v>15.33139819260635</v>
+      </c>
+      <c r="K1548">
+        <v>0.3607902129881389</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1549" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1549">
+        <v>2013</v>
+      </c>
+      <c r="D1549" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1549">
+        <v>6450773.023355444</v>
+      </c>
+      <c r="F1549">
+        <v>9989493.998574596</v>
+      </c>
+      <c r="G1549">
+        <v>15879025.66231525</v>
+      </c>
+      <c r="H1549">
+        <v>22455133.02490893</v>
+      </c>
+      <c r="I1549">
+        <v>26651125.95193195</v>
+      </c>
+      <c r="J1549">
+        <v>16.53675931937729</v>
+      </c>
+      <c r="K1549">
+        <v>0.3614114236502793</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1550" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1550">
+        <v>2014</v>
+      </c>
+      <c r="D1550" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1550">
+        <v>3747685.868190304</v>
+      </c>
+      <c r="F1550">
+        <v>4719283.405358188</v>
+      </c>
+      <c r="G1550">
+        <v>6797742.474953915</v>
+      </c>
+      <c r="H1550">
+        <v>9365065.936055984</v>
+      </c>
+      <c r="I1550">
+        <v>10821772.52530264</v>
+      </c>
+      <c r="J1550">
+        <v>15.71667112816638</v>
+      </c>
+      <c r="K1550">
+        <v>0.2722731747061594</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1551" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1551">
+        <v>2014</v>
+      </c>
+      <c r="D1551" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1551">
+        <v>10678223.11379132</v>
+      </c>
+      <c r="F1551">
+        <v>13392763.41630685</v>
+      </c>
+      <c r="G1551">
+        <v>19405553.90309408</v>
+      </c>
+      <c r="H1551">
+        <v>27303821.32305666</v>
+      </c>
+      <c r="I1551">
+        <v>31909996.35266948</v>
+      </c>
+      <c r="J1551">
+        <v>16.7705433636802</v>
+      </c>
+      <c r="K1551">
+        <v>0.2811794341032117</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1552" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1552">
+        <v>2015</v>
+      </c>
+      <c r="D1552" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1552">
+        <v>325948.4340241691</v>
+      </c>
+      <c r="F1552">
+        <v>578879.5326870038</v>
+      </c>
+      <c r="G1552">
+        <v>1454827.116642723</v>
+      </c>
+      <c r="H1552">
+        <v>2956149.356566807</v>
+      </c>
+      <c r="I1552">
+        <v>3979785.522039865</v>
+      </c>
+      <c r="J1552">
+        <v>14.12474812721122</v>
+      </c>
+      <c r="K1552">
+        <v>0.6448320535761199</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1553" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1553">
+        <v>2015</v>
+      </c>
+      <c r="D1553" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1553">
+        <v>1410662.225067282</v>
+      </c>
+      <c r="F1553">
+        <v>2513713.828376391</v>
+      </c>
+      <c r="G1553">
+        <v>6312638.985145011</v>
+      </c>
+      <c r="H1553">
+        <v>12886748.10095113</v>
+      </c>
+      <c r="I1553">
+        <v>17343553.59215326</v>
+      </c>
+      <c r="J1553">
+        <v>15.59356029617774</v>
+      </c>
+      <c r="K1553">
+        <v>0.6447586131601828</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1554" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1554">
+        <v>2016</v>
+      </c>
+      <c r="D1554" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1554">
+        <v>1424905.296189947</v>
+      </c>
+      <c r="F1554">
+        <v>2246317.864246534</v>
+      </c>
+      <c r="G1554">
+        <v>3599127.856072463</v>
+      </c>
+      <c r="H1554">
+        <v>5156347.047694906</v>
+      </c>
+      <c r="I1554">
+        <v>6200860.425641268</v>
+      </c>
+      <c r="J1554">
+        <v>15.05447200104698</v>
+      </c>
+      <c r="K1554">
+        <v>0.3611730132719756</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="inlineStr">
+        <is>
+          <t>Great Central</t>
+        </is>
+      </c>
+      <c r="B1555" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1555">
+        <v>2016</v>
+      </c>
+      <c r="D1555" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1555">
+        <v>6395928.03166961</v>
+      </c>
+      <c r="F1555">
+        <v>10055853.46216807</v>
+      </c>
+      <c r="G1555">
+        <v>16077307.98916278</v>
+      </c>
+      <c r="H1555">
+        <v>23086737.38092738</v>
+      </c>
+      <c r="I1555">
+        <v>27584500.74820306</v>
+      </c>
+      <c r="J1555">
+        <v>16.55168590875702</v>
+      </c>
+      <c r="K1555">
+        <v>0.361041315627093</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1556" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1556">
+        <v>1978</v>
+      </c>
+      <c r="D1556" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1556">
+        <v>738532.6881012865</v>
+      </c>
+      <c r="F1556">
+        <v>946082.3278489234</v>
+      </c>
+      <c r="G1556">
+        <v>1475368.580473499</v>
+      </c>
+      <c r="H1556">
+        <v>2264237.861113188</v>
+      </c>
+      <c r="I1556">
+        <v>2911242.333476265</v>
+      </c>
+      <c r="J1556">
+        <v>14.20039174890889</v>
+      </c>
+      <c r="K1556">
+        <v>0.3444534891891827</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1557" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1557">
+        <v>1978</v>
+      </c>
+      <c r="D1557" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1557">
+        <v>2020154.555828771</v>
+      </c>
+      <c r="F1557">
+        <v>2589223.145342086</v>
+      </c>
+      <c r="G1557">
+        <v>4029931.308577321</v>
+      </c>
+      <c r="H1557">
+        <v>6179690.02055263</v>
+      </c>
+      <c r="I1557">
+        <v>7954937.057062379</v>
+      </c>
+      <c r="J1557">
+        <v>15.20488525968257</v>
+      </c>
+      <c r="K1557">
+        <v>0.3445418627080913</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1558" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1558">
+        <v>1979</v>
+      </c>
+      <c r="D1558" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1558">
+        <v>496451.7220626962</v>
+      </c>
+      <c r="F1558">
+        <v>634863.4188151478</v>
+      </c>
+      <c r="G1558">
+        <v>1002700.026512054</v>
+      </c>
+      <c r="H1558">
+        <v>1628360.97659069</v>
+      </c>
+      <c r="I1558">
+        <v>2134597.040819256</v>
+      </c>
+      <c r="J1558">
+        <v>13.82428573832276</v>
+      </c>
+      <c r="K1558">
+        <v>0.3686911217634518</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1559" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1559">
+        <v>1979</v>
+      </c>
+      <c r="D1559" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1559">
+        <v>2046808.004060536</v>
+      </c>
+      <c r="F1559">
+        <v>2617446.635761721</v>
+      </c>
+      <c r="G1559">
+        <v>4131023.224924174</v>
+      </c>
+      <c r="H1559">
+        <v>6707111.285480958</v>
+      </c>
+      <c r="I1559">
+        <v>8780034.542452529</v>
+      </c>
+      <c r="J1559">
+        <v>15.24026585735265</v>
+      </c>
+      <c r="K1559">
+        <v>0.3688031087042257</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1560" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1560">
+        <v>1980</v>
+      </c>
+      <c r="D1560" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1560">
+        <v>484848.0206760786</v>
+      </c>
+      <c r="F1560">
+        <v>617176.823678478</v>
+      </c>
+      <c r="G1560">
+        <v>980321.2218503042</v>
+      </c>
+      <c r="H1560">
+        <v>1558961.566608532</v>
+      </c>
+      <c r="I1560">
+        <v>2000097.068207248</v>
+      </c>
+      <c r="J1560">
+        <v>13.79653019571643</v>
+      </c>
+      <c r="K1560">
+        <v>0.3647496448385185</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1561" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1561">
+        <v>1980</v>
+      </c>
+      <c r="D1561" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1561">
+        <v>1111029.77140835</v>
+      </c>
+      <c r="F1561">
+        <v>1417053.503962385</v>
+      </c>
+      <c r="G1561">
+        <v>2251426.476981903</v>
+      </c>
+      <c r="H1561">
+        <v>3565987.350732033</v>
+      </c>
+      <c r="I1561">
+        <v>4589215.349543831</v>
+      </c>
+      <c r="J1561">
+        <v>14.62673337046421</v>
+      </c>
+      <c r="K1561">
+        <v>0.3646656835030698</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1562" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1562">
+        <v>1981</v>
+      </c>
+      <c r="D1562" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1562">
+        <v>637379.9718603779</v>
+      </c>
+      <c r="F1562">
+        <v>818697.8543867094</v>
+      </c>
+      <c r="G1562">
+        <v>1306680.04779143</v>
+      </c>
+      <c r="H1562">
+        <v>2070989.612980205</v>
+      </c>
+      <c r="I1562">
+        <v>2612846.589431668</v>
+      </c>
+      <c r="J1562">
+        <v>14.08281176301907</v>
+      </c>
+      <c r="K1562">
+        <v>0.3641348150577354</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1563" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1563">
+        <v>1981</v>
+      </c>
+      <c r="D1563" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1563">
+        <v>1428855.794516986</v>
+      </c>
+      <c r="F1563">
+        <v>1833534.434238068</v>
+      </c>
+      <c r="G1563">
+        <v>2935370.039234391</v>
+      </c>
+      <c r="H1563">
+        <v>4641370.696603021</v>
+      </c>
+      <c r="I1563">
+        <v>5899133.036915346</v>
+      </c>
+      <c r="J1563">
+        <v>14.89148623979927</v>
+      </c>
+      <c r="K1563">
+        <v>0.3640044236320364</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1564" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1564">
+        <v>1982</v>
+      </c>
+      <c r="D1564" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1564">
+        <v>605060.6553949929</v>
+      </c>
+      <c r="F1564">
+        <v>780423.1097434352</v>
+      </c>
+      <c r="G1564">
+        <v>1250800.913995739</v>
+      </c>
+      <c r="H1564">
+        <v>1993528.614390563</v>
+      </c>
+      <c r="I1564">
+        <v>2562846.27607196</v>
+      </c>
+      <c r="J1564">
+        <v>14.03900717129336</v>
+      </c>
+      <c r="K1564">
+        <v>0.366315987578736</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1565" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1565">
+        <v>1982</v>
+      </c>
+      <c r="D1565" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1565">
+        <v>2595802.399553995</v>
+      </c>
+      <c r="F1565">
+        <v>3344872.357933283</v>
+      </c>
+      <c r="G1565">
+        <v>5361186.4878419</v>
+      </c>
+      <c r="H1565">
+        <v>8542810.078894706</v>
+      </c>
+      <c r="I1565">
+        <v>10998537.80208928</v>
+      </c>
+      <c r="J1565">
+        <v>15.49377024076921</v>
+      </c>
+      <c r="K1565">
+        <v>0.3668215899637674</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1566" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1566">
+        <v>1983</v>
+      </c>
+      <c r="D1566" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1566">
+        <v>798867.2584761133</v>
+      </c>
+      <c r="F1566">
+        <v>1082488.866977641</v>
+      </c>
+      <c r="G1566">
+        <v>1725828.031620751</v>
+      </c>
+      <c r="H1566">
+        <v>2739089.156120118</v>
+      </c>
+      <c r="I1566">
+        <v>3483548.956135307</v>
+      </c>
+      <c r="J1566">
+        <v>14.35650143930125</v>
+      </c>
+      <c r="K1566">
+        <v>0.3759945840129116</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1567" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1567">
+        <v>1983</v>
+      </c>
+      <c r="D1567" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1567">
+        <v>933011.9772733465</v>
+      </c>
+      <c r="F1567">
+        <v>1268548.737006259</v>
+      </c>
+      <c r="G1567">
+        <v>2012013.344600755</v>
+      </c>
+      <c r="H1567">
+        <v>3202277.017886996</v>
+      </c>
+      <c r="I1567">
+        <v>4066464.98912662</v>
+      </c>
+      <c r="J1567">
+        <v>14.51297695747479</v>
+      </c>
+      <c r="K1567">
+        <v>0.3759211344747341</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1568" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1568">
+        <v>1984</v>
+      </c>
+      <c r="D1568" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1568">
+        <v>672161.3100158891</v>
+      </c>
+      <c r="F1568">
+        <v>877095.5349131152</v>
+      </c>
+      <c r="G1568">
+        <v>1379912.959282804</v>
+      </c>
+      <c r="H1568">
+        <v>2137941.498537184</v>
+      </c>
+      <c r="I1568">
+        <v>2731911.393042001</v>
+      </c>
+      <c r="J1568">
+        <v>14.13442677933293</v>
+      </c>
+      <c r="K1568">
+        <v>0.3534344159377668</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1569" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1569">
+        <v>1984</v>
+      </c>
+      <c r="D1569" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1569">
+        <v>1520953.275499818</v>
+      </c>
+      <c r="F1569">
+        <v>1986070.623478876</v>
+      </c>
+      <c r="G1569">
+        <v>3120348.637041009</v>
+      </c>
+      <c r="H1569">
+        <v>4835433.763323506</v>
+      </c>
+      <c r="I1569">
+        <v>6197474.524130234</v>
+      </c>
+      <c r="J1569">
+        <v>14.95106626616069</v>
+      </c>
+      <c r="K1569">
+        <v>0.353239281417172</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1570" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1570">
+        <v>1985</v>
+      </c>
+      <c r="D1570" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1570">
+        <v>668125.1913162761</v>
+      </c>
+      <c r="F1570">
+        <v>874194.9513765976</v>
+      </c>
+      <c r="G1570">
+        <v>1396717.248678282</v>
+      </c>
+      <c r="H1570">
+        <v>2196489.260308117</v>
+      </c>
+      <c r="I1570">
+        <v>2793099.586053337</v>
+      </c>
+      <c r="J1570">
+        <v>14.14273352968249</v>
+      </c>
+      <c r="K1570">
+        <v>0.3621684431875561</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1571" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1571">
+        <v>1985</v>
+      </c>
+      <c r="D1571" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1571">
+        <v>1782725.751045917</v>
+      </c>
+      <c r="F1571">
+        <v>2331693.939273505</v>
+      </c>
+      <c r="G1571">
+        <v>3719772.858505599</v>
+      </c>
+      <c r="H1571">
+        <v>5874494.012766534</v>
+      </c>
+      <c r="I1571">
+        <v>7475388.895838838</v>
+      </c>
+      <c r="J1571">
+        <v>15.12400126192091</v>
+      </c>
+      <c r="K1571">
+        <v>0.3627844051156076</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1572" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1572">
+        <v>1986</v>
+      </c>
+      <c r="D1572" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1572">
+        <v>713001.2095970379</v>
+      </c>
+      <c r="F1572">
+        <v>955330.0207153999</v>
+      </c>
+      <c r="G1572">
+        <v>1575292.915286287</v>
+      </c>
+      <c r="H1572">
+        <v>2509802.137462613</v>
+      </c>
+      <c r="I1572">
+        <v>3198436.383866339</v>
+      </c>
+      <c r="J1572">
+        <v>14.25806635826876</v>
+      </c>
+      <c r="K1572">
+        <v>0.3869205199004945</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1573" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1573">
+        <v>1986</v>
+      </c>
+      <c r="D1573" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1573">
+        <v>1076433.880336188</v>
+      </c>
+      <c r="F1573">
+        <v>1435690.304271278</v>
+      </c>
+      <c r="G1573">
+        <v>2371363.096998918</v>
+      </c>
+      <c r="H1573">
+        <v>3797923.999520354</v>
+      </c>
+      <c r="I1573">
+        <v>4833014.057369832</v>
+      </c>
+      <c r="J1573">
+        <v>14.66954718590664</v>
+      </c>
+      <c r="K1573">
+        <v>0.38804243717135</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1574" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1574">
+        <v>1987</v>
+      </c>
+      <c r="D1574" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1574">
+        <v>489639.3099582222</v>
+      </c>
+      <c r="F1574">
+        <v>623801.4860151773</v>
+      </c>
+      <c r="G1574">
+        <v>980695.4543253605</v>
+      </c>
+      <c r="H1574">
+        <v>1528383.510366562</v>
+      </c>
+      <c r="I1574">
+        <v>1966208.056450514</v>
+      </c>
+      <c r="J1574">
+        <v>13.79329047746606</v>
+      </c>
+      <c r="K1574">
+        <v>0.3489824786286149</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1575" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1575">
+        <v>1987</v>
+      </c>
+      <c r="D1575" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1575">
+        <v>2804429.074510009</v>
+      </c>
+      <c r="F1575">
+        <v>3609582.672983354</v>
+      </c>
+      <c r="G1575">
+        <v>5682232.133815723</v>
+      </c>
+      <c r="H1575">
+        <v>8883594.211631361</v>
+      </c>
+      <c r="I1575">
+        <v>11306293.81069741</v>
+      </c>
+      <c r="J1575">
+        <v>15.55137357049379</v>
+      </c>
+      <c r="K1575">
+        <v>0.3539400750848358</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1576" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1576">
+        <v>1988</v>
+      </c>
+      <c r="D1576" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1576">
+        <v>161294.6687974216</v>
+      </c>
+      <c r="F1576">
+        <v>207505.1490639258</v>
+      </c>
+      <c r="G1576">
+        <v>355583.6732656234</v>
+      </c>
+      <c r="H1576">
+        <v>617436.7801636097</v>
+      </c>
+      <c r="I1576">
+        <v>847901.7492730332</v>
+      </c>
+      <c r="J1576">
+        <v>12.78766720934797</v>
+      </c>
+      <c r="K1576">
+        <v>0.4242714852963304</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1577" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1577">
+        <v>1988</v>
+      </c>
+      <c r="D1577" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1577">
+        <v>1110689.807969998</v>
+      </c>
+      <c r="F1577">
+        <v>1430646.824058539</v>
+      </c>
+      <c r="G1577">
+        <v>2447891.028895712</v>
+      </c>
+      <c r="H1577">
+        <v>4259589.810492484</v>
+      </c>
+      <c r="I1577">
+        <v>5885068.881574872</v>
+      </c>
+      <c r="J1577">
+        <v>14.71684478911588</v>
+      </c>
+      <c r="K1577">
+        <v>0.4250111343546349</v>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1578" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1578">
+        <v>1989</v>
+      </c>
+      <c r="D1578" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1578">
+        <v>506106.9941737383</v>
+      </c>
+      <c r="F1578">
+        <v>654016.3219232424</v>
+      </c>
+      <c r="G1578">
+        <v>1048278.706791897</v>
+      </c>
+      <c r="H1578">
+        <v>1679287.678613699</v>
+      </c>
+      <c r="I1578">
+        <v>2207124.854918644</v>
+      </c>
+      <c r="J1578">
+        <v>13.86194869954784</v>
+      </c>
+      <c r="K1578">
+        <v>0.3735035232836102</v>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1579" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1579">
+        <v>1989</v>
+      </c>
+      <c r="D1579" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1579">
+        <v>1850659.985019243</v>
+      </c>
+      <c r="F1579">
+        <v>2401680.914115554</v>
+      </c>
+      <c r="G1579">
+        <v>3833184.177680661</v>
+      </c>
+      <c r="H1579">
+        <v>6151800.181142904</v>
+      </c>
+      <c r="I1579">
+        <v>8137238.205083528</v>
+      </c>
+      <c r="J1579">
+        <v>15.16049717249491</v>
+      </c>
+      <c r="K1579">
+        <v>0.3738996879424221</v>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1580" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1580">
+        <v>1990</v>
+      </c>
+      <c r="D1580" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1580">
+        <v>709822.5032981898</v>
+      </c>
+      <c r="F1580">
+        <v>928763.1460245544</v>
+      </c>
+      <c r="G1580">
+        <v>1523036.507434386</v>
+      </c>
+      <c r="H1580">
+        <v>2428846.500237192</v>
+      </c>
+      <c r="I1580">
+        <v>3107357.862563297</v>
+      </c>
+      <c r="J1580">
+        <v>14.22835670359876</v>
+      </c>
+      <c r="K1580">
+        <v>0.3750029269722041</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1581" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1581">
+        <v>1990</v>
+      </c>
+      <c r="D1581" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1581">
+        <v>2416013.777560532</v>
+      </c>
+      <c r="F1581">
+        <v>3170010.511591868</v>
+      </c>
+      <c r="G1581">
+        <v>5186985.022224457</v>
+      </c>
+      <c r="H1581">
+        <v>8289306.40340566</v>
+      </c>
+      <c r="I1581">
+        <v>10572838.62888127</v>
+      </c>
+      <c r="J1581">
+        <v>15.45378363709939</v>
+      </c>
+      <c r="K1581">
+        <v>0.3750415005185164</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1582" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1582">
+        <v>1991</v>
+      </c>
+      <c r="D1582" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1582">
+        <v>544530.3326772139</v>
+      </c>
+      <c r="F1582">
+        <v>698149.9060785731</v>
+      </c>
+      <c r="G1582">
+        <v>1100577.072474252</v>
+      </c>
+      <c r="H1582">
+        <v>1750718.683929485</v>
+      </c>
+      <c r="I1582">
+        <v>2289888.078842377</v>
+      </c>
+      <c r="J1582">
+        <v>13.913215909165</v>
+      </c>
+      <c r="K1582">
+        <v>0.366295194128831</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1583" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1583">
+        <v>1991</v>
+      </c>
+      <c r="D1583" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1583">
+        <v>2736957.22629006</v>
+      </c>
+      <c r="F1583">
+        <v>3510587.818027963</v>
+      </c>
+      <c r="G1583">
+        <v>5531511.321456732</v>
+      </c>
+      <c r="H1583">
+        <v>8799277.747802597</v>
+      </c>
+      <c r="I1583">
+        <v>11490019.23594454</v>
+      </c>
+      <c r="J1583">
+        <v>15.52850657138096</v>
+      </c>
+      <c r="K1583">
+        <v>0.3663216761498828</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1584" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1584">
+        <v>1992</v>
+      </c>
+      <c r="D1584" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1584">
+        <v>381165.4261046737</v>
+      </c>
+      <c r="F1584">
+        <v>492567.6654591925</v>
+      </c>
+      <c r="G1584">
+        <v>789382.9853521658</v>
+      </c>
+      <c r="H1584">
+        <v>1287459.882081854</v>
+      </c>
+      <c r="I1584">
+        <v>1681620.17635734</v>
+      </c>
+      <c r="J1584">
+        <v>13.58087770853338</v>
+      </c>
+      <c r="K1584">
+        <v>0.3800662586331023</v>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1585" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1585">
+        <v>1992</v>
+      </c>
+      <c r="D1585" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1585">
+        <v>2524870.48628218</v>
+      </c>
+      <c r="F1585">
+        <v>3272377.507099946</v>
+      </c>
+      <c r="G1585">
+        <v>5252389.286487708</v>
+      </c>
+      <c r="H1585">
+        <v>8549344.323376028</v>
+      </c>
+      <c r="I1585">
+        <v>11190356.93754862</v>
+      </c>
+      <c r="J1585">
+        <v>15.47494324164852</v>
+      </c>
+      <c r="K1585">
+        <v>0.3802104109037839</v>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1586" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1586">
+        <v>1993</v>
+      </c>
+      <c r="D1586" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1586">
+        <v>476839.8512142553</v>
+      </c>
+      <c r="F1586">
+        <v>619575.8127646729</v>
+      </c>
+      <c r="G1586">
+        <v>977325.6594556572</v>
+      </c>
+      <c r="H1586">
+        <v>1540886.90677106</v>
+      </c>
+      <c r="I1586">
+        <v>1972907.972009903</v>
+      </c>
+      <c r="J1586">
+        <v>13.79138476712696</v>
+      </c>
+      <c r="K1586">
+        <v>0.3587643641760108</v>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1587" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1587">
+        <v>1993</v>
+      </c>
+      <c r="D1587" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1587">
+        <v>2182145.927589683</v>
+      </c>
+      <c r="F1587">
+        <v>2822385.935461268</v>
+      </c>
+      <c r="G1587">
+        <v>4460267.269757261</v>
+      </c>
+      <c r="H1587">
+        <v>7013159.251631139</v>
+      </c>
+      <c r="I1587">
+        <v>8920522.816977423</v>
+      </c>
+      <c r="J1587">
+        <v>15.30779212108261</v>
+      </c>
+      <c r="K1587">
+        <v>0.3576872792175152</v>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1588" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1588">
+        <v>1994</v>
+      </c>
+      <c r="D1588" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1588">
+        <v>602460.1560524486</v>
+      </c>
+      <c r="F1588">
+        <v>773601.8513965227</v>
+      </c>
+      <c r="G1588">
+        <v>1244580.784996492</v>
+      </c>
+      <c r="H1588">
+        <v>1978069.560881867</v>
+      </c>
+      <c r="I1588">
+        <v>2534201.646250937</v>
+      </c>
+      <c r="J1588">
+        <v>14.03033948478255</v>
+      </c>
+      <c r="K1588">
+        <v>0.3672100311449282</v>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1589" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1589">
+        <v>1994</v>
+      </c>
+      <c r="D1589" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1589">
+        <v>2267721.618806971</v>
+      </c>
+      <c r="F1589">
+        <v>2908156.689163759</v>
+      </c>
+      <c r="G1589">
+        <v>4673235.907711182</v>
+      </c>
+      <c r="H1589">
+        <v>7437733.317613401</v>
+      </c>
+      <c r="I1589">
+        <v>9516433.427354768</v>
+      </c>
+      <c r="J1589">
+        <v>15.35411164139275</v>
+      </c>
+      <c r="K1589">
+        <v>0.3675482574149188</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1590" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1590">
+        <v>1995</v>
+      </c>
+      <c r="D1590" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1590">
+        <v>975563.4098466544</v>
+      </c>
+      <c r="F1590">
+        <v>1272489.752949601</v>
+      </c>
+      <c r="G1590">
+        <v>2059018.041466517</v>
+      </c>
+      <c r="H1590">
+        <v>3210342.463703802</v>
+      </c>
+      <c r="I1590">
+        <v>4092300.425631534</v>
+      </c>
+      <c r="J1590">
+        <v>14.5290004427478</v>
+      </c>
+      <c r="K1590">
+        <v>0.3662415665875065</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1591" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1591">
+        <v>1995</v>
+      </c>
+      <c r="D1591" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1591">
+        <v>1374783.99820249</v>
+      </c>
+      <c r="F1591">
+        <v>1789023.587655219</v>
+      </c>
+      <c r="G1591">
+        <v>2888779.551430012</v>
+      </c>
+      <c r="H1591">
+        <v>4516620.262665513</v>
+      </c>
+      <c r="I1591">
+        <v>5751187.511998378</v>
+      </c>
+      <c r="J1591">
+        <v>14.86861602017252</v>
+      </c>
+      <c r="K1591">
+        <v>0.3662541459715754</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1592" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1592">
+        <v>1996</v>
+      </c>
+      <c r="D1592" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1592">
+        <v>378305.3997067767</v>
+      </c>
+      <c r="F1592">
+        <v>482282.9377111798</v>
+      </c>
+      <c r="G1592">
+        <v>759194.1255500359</v>
+      </c>
+      <c r="H1592">
+        <v>1183694.950843022</v>
+      </c>
+      <c r="I1592">
+        <v>1513756.889519742</v>
+      </c>
+      <c r="J1592">
+        <v>13.53724186443574</v>
+      </c>
+      <c r="K1592">
+        <v>0.3550807552248995</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1593" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1593">
+        <v>1996</v>
+      </c>
+      <c r="D1593" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1593">
+        <v>1443984.36004242</v>
+      </c>
+      <c r="F1593">
+        <v>1846183.006794846</v>
+      </c>
+      <c r="G1593">
+        <v>2902931.028191553</v>
+      </c>
+      <c r="H1593">
+        <v>4517142.884240355</v>
+      </c>
+      <c r="I1593">
+        <v>5794062.188688633</v>
+      </c>
+      <c r="J1593">
+        <v>14.87885452756728</v>
+      </c>
+      <c r="K1593">
+        <v>0.3553058160760092</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1594" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1594">
+        <v>1997</v>
+      </c>
+      <c r="D1594" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1594">
+        <v>106317.740110533</v>
+      </c>
+      <c r="F1594">
+        <v>145611.590493388</v>
+      </c>
+      <c r="G1594">
+        <v>263024.043841305</v>
+      </c>
+      <c r="H1594">
+        <v>490915.9234865499</v>
+      </c>
+      <c r="I1594">
+        <v>667341.7898013134</v>
+      </c>
+      <c r="J1594">
+        <v>12.49062983128944</v>
+      </c>
+      <c r="K1594">
+        <v>0.4719187577767485</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1595" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1595">
+        <v>1997</v>
+      </c>
+      <c r="D1595" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1595">
+        <v>418868.9933800357</v>
+      </c>
+      <c r="F1595">
+        <v>573015.3718464072</v>
+      </c>
+      <c r="G1595">
+        <v>1036050.682840713</v>
+      </c>
+      <c r="H1595">
+        <v>1936829.07492715</v>
+      </c>
+      <c r="I1595">
+        <v>2627449.487238352</v>
+      </c>
+      <c r="J1595">
+        <v>13.86038711582993</v>
+      </c>
+      <c r="K1595">
+        <v>0.4719038873526167</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1596" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1596">
+        <v>1998</v>
+      </c>
+      <c r="D1596" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1596">
+        <v>654115.9840550951</v>
+      </c>
+      <c r="F1596">
+        <v>852304.2199720158</v>
+      </c>
+      <c r="G1596">
+        <v>1349450.318023636</v>
+      </c>
+      <c r="H1596">
+        <v>2104243.787514699</v>
+      </c>
+      <c r="I1596">
+        <v>2638346.39128721</v>
+      </c>
+      <c r="J1596">
+        <v>14.10689580416753</v>
+      </c>
+      <c r="K1596">
+        <v>0.3565665414996184</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1597" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1597">
+        <v>1998</v>
+      </c>
+      <c r="D1597" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1597">
+        <v>2577475.129892789</v>
+      </c>
+      <c r="F1597">
+        <v>3363183.117982086</v>
+      </c>
+      <c r="G1597">
+        <v>5328800.891521964</v>
+      </c>
+      <c r="H1597">
+        <v>8296995.687490876</v>
+      </c>
+      <c r="I1597">
+        <v>10426129.30665529</v>
+      </c>
+      <c r="J1597">
+        <v>15.48067984093685</v>
+      </c>
+      <c r="K1597">
+        <v>0.3568402456915398</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1598" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1598">
+        <v>1999</v>
+      </c>
+      <c r="D1598" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1598">
+        <v>366454.3957267203</v>
+      </c>
+      <c r="F1598">
+        <v>467130.1807250931</v>
+      </c>
+      <c r="G1598">
+        <v>736211.8188189487</v>
+      </c>
+      <c r="H1598">
+        <v>1170129.27523804</v>
+      </c>
+      <c r="I1598">
+        <v>1503628.528632353</v>
+      </c>
+      <c r="J1598">
+        <v>13.50786101422987</v>
+      </c>
+      <c r="K1598">
+        <v>0.3606502360072922</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1599" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1599">
+        <v>1999</v>
+      </c>
+      <c r="D1599" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1599">
+        <v>1520511.774961048</v>
+      </c>
+      <c r="F1599">
+        <v>1948578.010854846</v>
+      </c>
+      <c r="G1599">
+        <v>3060047.338094239</v>
+      </c>
+      <c r="H1599">
+        <v>4881210.694744395</v>
+      </c>
+      <c r="I1599">
+        <v>6265796.751803368</v>
+      </c>
+      <c r="J1599">
+        <v>14.9360747442471</v>
+      </c>
+      <c r="K1599">
+        <v>0.3615810512589368</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1600" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1600">
+        <v>2000</v>
+      </c>
+      <c r="D1600" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1600">
+        <v>545621.3077159261</v>
+      </c>
+      <c r="F1600">
+        <v>790607.0829760183</v>
+      </c>
+      <c r="G1600">
+        <v>1345514.667211757</v>
+      </c>
+      <c r="H1600">
+        <v>2184395.03829562</v>
+      </c>
+      <c r="I1600">
+        <v>2826974.258889259</v>
+      </c>
+      <c r="J1600">
+        <v>14.09154361936854</v>
+      </c>
+      <c r="K1600">
+        <v>0.4208069219365554</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1601" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1601">
+        <v>2000</v>
+      </c>
+      <c r="D1601" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1601">
+        <v>341797.8316601077</v>
+      </c>
+      <c r="F1601">
+        <v>491474.3973818175</v>
+      </c>
+      <c r="G1601">
+        <v>840174.7488370828</v>
+      </c>
+      <c r="H1601">
+        <v>1369625.500468501</v>
+      </c>
+      <c r="I1601">
+        <v>1755000.44341972</v>
+      </c>
+      <c r="J1601">
+        <v>13.61926716054864</v>
+      </c>
+      <c r="K1601">
+        <v>0.4210052594721467</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1602" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1602">
+        <v>2001</v>
+      </c>
+      <c r="D1602" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1602">
+        <v>401670.2086149555</v>
+      </c>
+      <c r="F1602">
+        <v>503205.084177674</v>
+      </c>
+      <c r="G1602">
+        <v>784493.5034882801</v>
+      </c>
+      <c r="H1602">
+        <v>1239633.709281417</v>
+      </c>
+      <c r="I1602">
+        <v>1578400.056312901</v>
+      </c>
+      <c r="J1602">
+        <v>13.57566771017579</v>
+      </c>
+      <c r="K1602">
+        <v>0.3526797758754046</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1603" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1603">
+        <v>2001</v>
+      </c>
+      <c r="D1603" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1603">
+        <v>1103118.330981829</v>
+      </c>
+      <c r="F1603">
+        <v>1381688.206834621</v>
+      </c>
+      <c r="G1603">
+        <v>2170289.07929921</v>
+      </c>
+      <c r="H1603">
+        <v>3426290.53026957</v>
+      </c>
+      <c r="I1603">
+        <v>4379746.60801351</v>
+      </c>
+      <c r="J1603">
+        <v>14.58906076817294</v>
+      </c>
+      <c r="K1603">
+        <v>0.3540864283157583</v>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1604" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1604">
+        <v>2002</v>
+      </c>
+      <c r="D1604" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1604">
+        <v>586444.1496213567</v>
+      </c>
+      <c r="F1604">
+        <v>751583.7868223757</v>
+      </c>
+      <c r="G1604">
+        <v>1178427.390342793</v>
+      </c>
+      <c r="H1604">
+        <v>1865504.944548484</v>
+      </c>
+      <c r="I1604">
+        <v>2381827.674933064</v>
+      </c>
+      <c r="J1604">
+        <v>13.98463521454222</v>
+      </c>
+      <c r="K1604">
+        <v>0.3554306277083832</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1605" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1605">
+        <v>2002</v>
+      </c>
+      <c r="D1605" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1605">
+        <v>410379.5366645855</v>
+      </c>
+      <c r="F1605">
+        <v>520612.4306445903</v>
+      </c>
+      <c r="G1605">
+        <v>820789.6398200032</v>
+      </c>
+      <c r="H1605">
+        <v>1301704.02262569</v>
+      </c>
+      <c r="I1605">
+        <v>1646677.745532728</v>
+      </c>
+      <c r="J1605">
+        <v>13.62133914424299</v>
+      </c>
+      <c r="K1605">
+        <v>0.3564874250441447</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1606" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1606">
+        <v>2003</v>
+      </c>
+      <c r="D1606" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1606">
+        <v>577247.2145465679</v>
+      </c>
+      <c r="F1606">
+        <v>804583.203048159</v>
+      </c>
+      <c r="G1606">
+        <v>1375045.622332714</v>
+      </c>
+      <c r="H1606">
+        <v>2230601.057745363</v>
+      </c>
+      <c r="I1606">
+        <v>2940343.970753058</v>
+      </c>
+      <c r="J1606">
+        <v>14.11464594766379</v>
+      </c>
+      <c r="K1606">
+        <v>0.4139102833161568</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1607" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1607">
+        <v>2003</v>
+      </c>
+      <c r="D1607" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1607">
+        <v>710138.4130980349</v>
+      </c>
+      <c r="F1607">
+        <v>991105.2546118619</v>
+      </c>
+      <c r="G1607">
+        <v>1695278.881402947</v>
+      </c>
+      <c r="H1607">
+        <v>2763082.337658387</v>
+      </c>
+      <c r="I1607">
+        <v>3618166.64435737</v>
+      </c>
+      <c r="J1607">
+        <v>14.32472049057325</v>
+      </c>
+      <c r="K1607">
+        <v>0.4155914520440285</v>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1608" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1608">
+        <v>2004</v>
+      </c>
+      <c r="D1608" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1608">
+        <v>506579.2536867944</v>
+      </c>
+      <c r="F1608">
+        <v>639673.7761597018</v>
+      </c>
+      <c r="G1608">
+        <v>1004305.16098841</v>
+      </c>
+      <c r="H1608">
+        <v>1566401.502914624</v>
+      </c>
+      <c r="I1608">
+        <v>1992228.814461101</v>
+      </c>
+      <c r="J1608">
+        <v>13.8186073574342</v>
+      </c>
+      <c r="K1608">
+        <v>0.3562998264303329</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1609" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1609">
+        <v>2004</v>
+      </c>
+      <c r="D1609" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1609">
+        <v>1911088.52834686</v>
+      </c>
+      <c r="F1609">
+        <v>2419810.902964036</v>
+      </c>
+      <c r="G1609">
+        <v>3800265.778833263</v>
+      </c>
+      <c r="H1609">
+        <v>5916861.228616918</v>
+      </c>
+      <c r="I1609">
+        <v>7536756.380833373</v>
+      </c>
+      <c r="J1609">
+        <v>15.14701070294157</v>
+      </c>
+      <c r="K1609">
+        <v>0.3566994520876667</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1610" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1610">
+        <v>2005</v>
+      </c>
+      <c r="D1610" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1610">
+        <v>493198.0494894398</v>
+      </c>
+      <c r="F1610">
+        <v>640514.0504469154</v>
+      </c>
+      <c r="G1610">
+        <v>1005780.416901462</v>
+      </c>
+      <c r="H1610">
+        <v>1573776.95276917</v>
+      </c>
+      <c r="I1610">
+        <v>2012565.903116256</v>
+      </c>
+      <c r="J1610">
+        <v>13.81878255962025</v>
+      </c>
+      <c r="K1610">
+        <v>0.3572219368480836</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1611" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1611">
+        <v>2005</v>
+      </c>
+      <c r="D1611" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1611">
+        <v>651728.3789121744</v>
+      </c>
+      <c r="F1611">
+        <v>848872.6777197066</v>
+      </c>
+      <c r="G1611">
+        <v>1336737.795338301</v>
+      </c>
+      <c r="H1611">
+        <v>2079506.631156566</v>
+      </c>
+      <c r="I1611">
+        <v>2663911.140687312</v>
+      </c>
+      <c r="J1611">
+        <v>14.1014984833026</v>
+      </c>
+      <c r="K1611">
+        <v>0.3575342431262573</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1612" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1612">
+        <v>2006</v>
+      </c>
+      <c r="D1612" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1612">
+        <v>482653.2721887429</v>
+      </c>
+      <c r="F1612">
+        <v>612446.1061642419</v>
+      </c>
+      <c r="G1612">
+        <v>976866.4670457612</v>
+      </c>
+      <c r="H1612">
+        <v>1569340.277468547</v>
+      </c>
+      <c r="I1612">
+        <v>2053285.269166917</v>
+      </c>
+      <c r="J1612">
+        <v>13.7967933072374</v>
+      </c>
+      <c r="K1612">
+        <v>0.3707313802778407</v>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1613" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1613">
+        <v>2006</v>
+      </c>
+      <c r="D1613" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1613">
+        <v>1646609.018043696</v>
+      </c>
+      <c r="F1613">
+        <v>2112053.879648173</v>
+      </c>
+      <c r="G1613">
+        <v>3363560.310888465</v>
+      </c>
+      <c r="H1613">
+        <v>5441184.311155653</v>
+      </c>
+      <c r="I1613">
+        <v>7140217.974261411</v>
+      </c>
+      <c r="J1613">
+        <v>15.03376161766732</v>
+      </c>
+      <c r="K1613">
+        <v>0.3731503193189071</v>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1614" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1614">
+        <v>2007</v>
+      </c>
+      <c r="D1614" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1614">
+        <v>339293.3096333806</v>
+      </c>
+      <c r="F1614">
+        <v>426386.2478592091</v>
+      </c>
+      <c r="G1614">
+        <v>688397.801106098</v>
+      </c>
+      <c r="H1614">
+        <v>1121423.345865502</v>
+      </c>
+      <c r="I1614">
+        <v>1467509.821089324</v>
+      </c>
+      <c r="J1614">
+        <v>13.44532635650455</v>
+      </c>
+      <c r="K1614">
+        <v>0.3781864097806718</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1615" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1615">
+        <v>2007</v>
+      </c>
+      <c r="D1615" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1615">
+        <v>1694673.939914599</v>
+      </c>
+      <c r="F1615">
+        <v>2128527.610815263</v>
+      </c>
+      <c r="G1615">
+        <v>3428571.788445571</v>
+      </c>
+      <c r="H1615">
+        <v>5581593.442751557</v>
+      </c>
+      <c r="I1615">
+        <v>7315211.630798207</v>
+      </c>
+      <c r="J1615">
+        <v>15.05211295901799</v>
+      </c>
+      <c r="K1615">
+        <v>0.3782648448200317</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1616" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1616">
+        <v>2008</v>
+      </c>
+      <c r="D1616" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1616">
+        <v>412140.6155571826</v>
+      </c>
+      <c r="F1616">
+        <v>531126.8934821094</v>
+      </c>
+      <c r="G1616">
+        <v>828728.0299201426</v>
+      </c>
+      <c r="H1616">
+        <v>1320697.285251664</v>
+      </c>
+      <c r="I1616">
+        <v>1740971.786106125</v>
+      </c>
+      <c r="J1616">
+        <v>13.63303712644095</v>
+      </c>
+      <c r="K1616">
+        <v>0.3596457008963501</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1617" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1617">
+        <v>2008</v>
+      </c>
+      <c r="D1617" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1617">
+        <v>2649831.692243287</v>
+      </c>
+      <c r="F1617">
+        <v>3413962.060824469</v>
+      </c>
+      <c r="G1617">
+        <v>5322864.418278217</v>
+      </c>
+      <c r="H1617">
+        <v>8497911.145318072</v>
+      </c>
+      <c r="I1617">
+        <v>11179289.1052069</v>
+      </c>
+      <c r="J1617">
+        <v>15.49347990810292</v>
+      </c>
+      <c r="K1617">
+        <v>0.3598867115319144</v>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1618" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1618">
+        <v>2009</v>
+      </c>
+      <c r="D1618" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1618">
+        <v>417768.9301910772</v>
+      </c>
+      <c r="F1618">
+        <v>531557.6545693137</v>
+      </c>
+      <c r="G1618">
+        <v>844512.3873998676</v>
+      </c>
+      <c r="H1618">
+        <v>1348995.46611639</v>
+      </c>
+      <c r="I1618">
+        <v>1768202.545589075</v>
+      </c>
+      <c r="J1618">
+        <v>13.64972093740062</v>
+      </c>
+      <c r="K1618">
+        <v>0.3649578375752686</v>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1619" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1619">
+        <v>2009</v>
+      </c>
+      <c r="D1619" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1619">
+        <v>412556.0466468048</v>
+      </c>
+      <c r="F1619">
+        <v>523831.7285299351</v>
+      </c>
+      <c r="G1619">
+        <v>833822.232107348</v>
+      </c>
+      <c r="H1619">
+        <v>1325918.657346837</v>
+      </c>
+      <c r="I1619">
+        <v>1742052.594017338</v>
+      </c>
+      <c r="J1619">
+        <v>13.6361075470849</v>
+      </c>
+      <c r="K1619">
+        <v>0.3649871024000507</v>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1620" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1620">
+        <v>2010</v>
+      </c>
+      <c r="D1620" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1620">
+        <v>563298.02438958</v>
+      </c>
+      <c r="F1620">
+        <v>725349.5074758584</v>
+      </c>
+      <c r="G1620">
+        <v>1144794.476999463</v>
+      </c>
+      <c r="H1620">
+        <v>1810638.596247114</v>
+      </c>
+      <c r="I1620">
+        <v>2318217.405727202</v>
+      </c>
+      <c r="J1620">
+        <v>13.95375496878549</v>
+      </c>
+      <c r="K1620">
+        <v>0.3628509073814238</v>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1621" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1621">
+        <v>2010</v>
+      </c>
+      <c r="D1621" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1621">
+        <v>1066436.326097945</v>
+      </c>
+      <c r="F1621">
+        <v>1368846.322482724</v>
+      </c>
+      <c r="G1621">
+        <v>2162790.831922253</v>
+      </c>
+      <c r="H1621">
+        <v>3429022.962079457</v>
+      </c>
+      <c r="I1621">
+        <v>4401190.108256875</v>
+      </c>
+      <c r="J1621">
+        <v>14.59012535346982</v>
+      </c>
+      <c r="K1621">
+        <v>0.363234364589459</v>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1622" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1622">
+        <v>2011</v>
+      </c>
+      <c r="D1622" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1622">
+        <v>474629.7735801155</v>
+      </c>
+      <c r="F1622">
+        <v>622316.0683867655</v>
+      </c>
+      <c r="G1622">
+        <v>971530.5517011008</v>
+      </c>
+      <c r="H1622">
+        <v>1541590.740204914</v>
+      </c>
+      <c r="I1622">
+        <v>2013920.055248752</v>
+      </c>
+      <c r="J1622">
+        <v>13.78823679655675</v>
+      </c>
+      <c r="K1622">
+        <v>0.3630510851527045</v>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1623" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1623">
+        <v>2011</v>
+      </c>
+      <c r="D1623" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1623">
+        <v>693486.3027191433</v>
+      </c>
+      <c r="F1623">
+        <v>914926.693648803</v>
+      </c>
+      <c r="G1623">
+        <v>1429662.478093481</v>
+      </c>
+      <c r="H1623">
+        <v>2251351.4174311</v>
+      </c>
+      <c r="I1623">
+        <v>2939375.515982556</v>
+      </c>
+      <c r="J1623">
+        <v>14.17482992254745</v>
+      </c>
+      <c r="K1623">
+        <v>0.3624746050753833</v>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1624" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1624">
+        <v>2012</v>
+      </c>
+      <c r="D1624" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1624">
+        <v>801215.6256588891</v>
+      </c>
+      <c r="F1624">
+        <v>1038536.844498896</v>
+      </c>
+      <c r="G1624">
+        <v>1717140.720684537</v>
+      </c>
+      <c r="H1624">
+        <v>2726748.254278035</v>
+      </c>
+      <c r="I1624">
+        <v>3442100.422801982</v>
+      </c>
+      <c r="J1624">
+        <v>14.34540386384701</v>
+      </c>
+      <c r="K1624">
+        <v>0.3766001246799453</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1625" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1625">
+        <v>2012</v>
+      </c>
+      <c r="D1625" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1625">
+        <v>551549.2537721707</v>
+      </c>
+      <c r="F1625">
+        <v>710592.7061886133</v>
+      </c>
+      <c r="G1625">
+        <v>1180952.151886568</v>
+      </c>
+      <c r="H1625">
+        <v>1886882.386308164</v>
+      </c>
+      <c r="I1625">
+        <v>2404076.764485954</v>
+      </c>
+      <c r="J1625">
+        <v>13.97284823887251</v>
+      </c>
+      <c r="K1625">
+        <v>0.3825684556150323</v>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1626" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1626">
+        <v>2013</v>
+      </c>
+      <c r="D1626" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1626">
+        <v>712014.3063116351</v>
+      </c>
+      <c r="F1626">
+        <v>922726.7295811982</v>
+      </c>
+      <c r="G1626">
+        <v>1494898.489487318</v>
+      </c>
+      <c r="H1626">
+        <v>2351437.182067555</v>
+      </c>
+      <c r="I1626">
+        <v>3004625.882562208</v>
+      </c>
+      <c r="J1626">
+        <v>14.21010237840549</v>
+      </c>
+      <c r="K1626">
+        <v>0.3652125315236944</v>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1627" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1627">
+        <v>2013</v>
+      </c>
+      <c r="D1627" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1627">
+        <v>657211.6652414362</v>
+      </c>
+      <c r="F1627">
+        <v>859448.0349161485</v>
+      </c>
+      <c r="G1627">
+        <v>1387581.847915594</v>
+      </c>
+      <c r="H1627">
+        <v>2186987.069231174</v>
+      </c>
+      <c r="I1627">
+        <v>2774144.640109623</v>
+      </c>
+      <c r="J1627">
+        <v>14.13560310416562</v>
+      </c>
+      <c r="K1627">
+        <v>0.3651687937117976</v>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1628" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1628">
+        <v>2014</v>
+      </c>
+      <c r="D1628" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1628">
+        <v>576060.4899486663</v>
+      </c>
+      <c r="F1628">
+        <v>727848.0871026405</v>
+      </c>
+      <c r="G1628">
+        <v>1152149.974179818</v>
+      </c>
+      <c r="H1628">
+        <v>1816845.052280096</v>
+      </c>
+      <c r="I1628">
+        <v>2340009.070371522</v>
+      </c>
+      <c r="J1628">
+        <v>13.9561609385428</v>
+      </c>
+      <c r="K1628">
+        <v>0.3580778659403904</v>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1629" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1629">
+        <v>2014</v>
+      </c>
+      <c r="D1629" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1629">
+        <v>510780.727886075</v>
+      </c>
+      <c r="F1629">
+        <v>643787.0860471246</v>
+      </c>
+      <c r="G1629">
+        <v>1020742.783787503</v>
+      </c>
+      <c r="H1629">
+        <v>1607925.822910144</v>
+      </c>
+      <c r="I1629">
+        <v>2079115.756147512</v>
+      </c>
+      <c r="J1629">
+        <v>13.83493914242798</v>
+      </c>
+      <c r="K1629">
+        <v>0.3582059338219239</v>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1630" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1630">
+        <v>2015</v>
+      </c>
+      <c r="D1630" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1630">
+        <v>470357.0214613471</v>
+      </c>
+      <c r="F1630">
+        <v>597014.6434119828</v>
+      </c>
+      <c r="G1630">
+        <v>936175.2345563156</v>
+      </c>
+      <c r="H1630">
+        <v>1519305.274267389</v>
+      </c>
+      <c r="I1630">
+        <v>1956348.293929569</v>
+      </c>
+      <c r="J1630">
+        <v>13.76022411491137</v>
+      </c>
+      <c r="K1630">
+        <v>0.3689252984424227</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="inlineStr">
+        <is>
+          <t>Hucuktlis</t>
+        </is>
+      </c>
+      <c r="B1631" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1631">
+        <v>2015</v>
+      </c>
+      <c r="D1631" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1631">
+        <v>983430.1232262737</v>
+      </c>
+      <c r="F1631">
+        <v>1247017.753882425</v>
+      </c>
+      <c r="G1631">
+        <v>1960111.286837131</v>
+      </c>
+      <c r="H1631">
+        <v>3178909.52404001</v>
+      </c>
+      <c r="I1631">
+        <v>4099725.521713926</v>
+      </c>
+      <c r="J1631">
+        <v>14.49932313762362</v>
+      </c>
+      <c r="K1631">
+        <v>0.3689797011618585</v>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1632" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1632">
+        <v>1980</v>
+      </c>
+      <c r="D1632" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1632">
+        <v>3117668.413102428</v>
+      </c>
+      <c r="F1632">
+        <v>3689778.145144808</v>
+      </c>
+      <c r="G1632">
+        <v>4880559.541214876</v>
+      </c>
+      <c r="H1632">
+        <v>6366121.540097717</v>
+      </c>
+      <c r="I1632">
+        <v>7398994.863738958</v>
+      </c>
+      <c r="J1632">
+        <v>15.39461983444774</v>
+      </c>
+      <c r="K1632">
+        <v>0.2183076655644759</v>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1633" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1633">
+        <v>1980</v>
+      </c>
+      <c r="D1633" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1633">
+        <v>12860127.89242654</v>
+      </c>
+      <c r="F1633">
+        <v>15279294.95967105</v>
+      </c>
+      <c r="G1633">
+        <v>20233360.13543238</v>
+      </c>
+      <c r="H1633">
+        <v>26435571.93674935</v>
+      </c>
+      <c r="I1633">
+        <v>30712954.37321825</v>
+      </c>
+      <c r="J1633">
+        <v>16.81576561359096</v>
+      </c>
+      <c r="K1633">
+        <v>0.2186789174574405</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1634" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1634">
+        <v>1981</v>
+      </c>
+      <c r="D1634" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1634">
+        <v>3290109.920261675</v>
+      </c>
+      <c r="F1634">
+        <v>3872274.34763951</v>
+      </c>
+      <c r="G1634">
+        <v>5100438.089829564</v>
+      </c>
+      <c r="H1634">
+        <v>6681193.925501896</v>
+      </c>
+      <c r="I1634">
+        <v>7782658.009623733</v>
+      </c>
+      <c r="J1634">
+        <v>15.44384300933393</v>
+      </c>
+      <c r="K1634">
+        <v>0.2180555349901309</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1635" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1635">
+        <v>1981</v>
+      </c>
+      <c r="D1635" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1635">
+        <v>15375187.41884981</v>
+      </c>
+      <c r="F1635">
+        <v>18128702.1159364</v>
+      </c>
+      <c r="G1635">
+        <v>23871353.19692977</v>
+      </c>
+      <c r="H1635">
+        <v>31207635.08593574</v>
+      </c>
+      <c r="I1635">
+        <v>36208529.59212186</v>
+      </c>
+      <c r="J1635">
+        <v>16.98558222647183</v>
+      </c>
+      <c r="K1635">
+        <v>0.2182909675640227</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1636" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1636">
+        <v>1982</v>
+      </c>
+      <c r="D1636" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1636">
+        <v>3365104.78919749</v>
+      </c>
+      <c r="F1636">
+        <v>3954797.413694586</v>
+      </c>
+      <c r="G1636">
+        <v>5222279.003736952</v>
+      </c>
+      <c r="H1636">
+        <v>6778202.677158675</v>
+      </c>
+      <c r="I1636">
+        <v>7912622.781298642</v>
+      </c>
+      <c r="J1636">
+        <v>15.46460527434515</v>
+      </c>
+      <c r="K1636">
+        <v>0.2149561725783761</v>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1637" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1637">
+        <v>1982</v>
+      </c>
+      <c r="D1637" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1637">
+        <v>11731999.85501949</v>
+      </c>
+      <c r="F1637">
+        <v>13831760.3175226</v>
+      </c>
+      <c r="G1637">
+        <v>18252096.41362936</v>
+      </c>
+      <c r="H1637">
+        <v>23706802.6505122</v>
+      </c>
+      <c r="I1637">
+        <v>27590547.7689737</v>
+      </c>
+      <c r="J1637">
+        <v>16.71523569889139</v>
+      </c>
+      <c r="K1637">
+        <v>0.2152270230790674</v>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1638" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1638">
+        <v>1983</v>
+      </c>
+      <c r="D1638" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1638">
+        <v>3835235.624666567</v>
+      </c>
+      <c r="F1638">
+        <v>4533769.320597325</v>
+      </c>
+      <c r="G1638">
+        <v>6011686.97255254</v>
+      </c>
+      <c r="H1638">
+        <v>7869556.705602493</v>
+      </c>
+      <c r="I1638">
+        <v>9020260.513201129</v>
+      </c>
+      <c r="J1638">
+        <v>15.60439497409915</v>
+      </c>
+      <c r="K1638">
+        <v>0.2178782308555245</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1639" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1639">
+        <v>1983</v>
+      </c>
+      <c r="D1639" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1639">
+        <v>13611500.33000902</v>
+      </c>
+      <c r="F1639">
+        <v>16045434.00574937</v>
+      </c>
+      <c r="G1639">
+        <v>21233089.24287502</v>
+      </c>
+      <c r="H1639">
+        <v>27780398.0091838</v>
+      </c>
+      <c r="I1639">
+        <v>31977871.25812931</v>
+      </c>
+      <c r="J1639">
+        <v>16.86655592297663</v>
+      </c>
+      <c r="K1639">
+        <v>0.2175751060192545</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1640" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1640">
+        <v>1984</v>
+      </c>
+      <c r="D1640" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1640">
+        <v>3689689.340887254</v>
+      </c>
+      <c r="F1640">
+        <v>4277456.315684491</v>
+      </c>
+      <c r="G1640">
+        <v>5574459.394059386</v>
+      </c>
+      <c r="H1640">
+        <v>7246648.743050948</v>
+      </c>
+      <c r="I1640">
+        <v>8237211.952816006</v>
+      </c>
+      <c r="J1640">
+        <v>15.53296314943535</v>
+      </c>
+      <c r="K1640">
+        <v>0.2046851111142504</v>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1641" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1641">
+        <v>1984</v>
+      </c>
+      <c r="D1641" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1641">
+        <v>16099690.15203866</v>
+      </c>
+      <c r="F1641">
+        <v>18605421.49139748</v>
+      </c>
+      <c r="G1641">
+        <v>24237978.57513914</v>
+      </c>
+      <c r="H1641">
+        <v>31551579.71402385</v>
+      </c>
+      <c r="I1641">
+        <v>35879774.77575301</v>
+      </c>
+      <c r="J1641">
+        <v>17.00355555037196</v>
+      </c>
+      <c r="K1641">
+        <v>0.2049899507397031</v>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1642" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1642">
+        <v>1985</v>
+      </c>
+      <c r="D1642" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1642">
+        <v>3673250.556078536</v>
+      </c>
+      <c r="F1642">
+        <v>4234608.772614154</v>
+      </c>
+      <c r="G1642">
+        <v>5579258.133141764</v>
+      </c>
+      <c r="H1642">
+        <v>7360108.250223526</v>
+      </c>
+      <c r="I1642">
+        <v>8542432.872309064</v>
+      </c>
+      <c r="J1642">
+        <v>15.53518422504519</v>
+      </c>
+      <c r="K1642">
+        <v>0.2151567524341693</v>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1643" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1643">
+        <v>1985</v>
+      </c>
+      <c r="D1643" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1643">
+        <v>8174426.079980944</v>
+      </c>
+      <c r="F1643">
+        <v>9453016.301926084</v>
+      </c>
+      <c r="G1643">
+        <v>12431517.08044108</v>
+      </c>
+      <c r="H1643">
+        <v>16363972.2280798</v>
+      </c>
+      <c r="I1643">
+        <v>19062025.40879956</v>
+      </c>
+      <c r="J1643">
+        <v>16.33668765378582</v>
+      </c>
+      <c r="K1643">
+        <v>0.2153239200788178</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1644" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1644">
+        <v>1986</v>
+      </c>
+      <c r="D1644" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1644">
+        <v>2897809.895553628</v>
+      </c>
+      <c r="F1644">
+        <v>3553088.26918035</v>
+      </c>
+      <c r="G1644">
+        <v>4829300.618779225</v>
+      </c>
+      <c r="H1644">
+        <v>6483119.199660189</v>
+      </c>
+      <c r="I1644">
+        <v>7591902.686745126</v>
+      </c>
+      <c r="J1644">
+        <v>15.38339852411619</v>
+      </c>
+      <c r="K1644">
+        <v>0.2418953389068404</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1645" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1645">
+        <v>1986</v>
+      </c>
+      <c r="D1645" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1645">
+        <v>14074834.48556198</v>
+      </c>
+      <c r="F1645">
+        <v>17329764.52313028</v>
+      </c>
+      <c r="G1645">
+        <v>23605806.20366939</v>
+      </c>
+      <c r="H1645">
+        <v>31611043.85922456</v>
+      </c>
+      <c r="I1645">
+        <v>37180741.81152795</v>
+      </c>
+      <c r="J1645">
+        <v>16.96841055016781</v>
+      </c>
+      <c r="K1645">
+        <v>0.2427313343863378</v>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1646" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1646">
+        <v>1987</v>
+      </c>
+      <c r="D1646" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1646">
+        <v>3131494.068740172</v>
+      </c>
+      <c r="F1646">
+        <v>3636584.179287015</v>
+      </c>
+      <c r="G1646">
+        <v>4799570.740287315</v>
+      </c>
+      <c r="H1646">
+        <v>6298643.459890235</v>
+      </c>
+      <c r="I1646">
+        <v>7288848.589555815</v>
+      </c>
+      <c r="J1646">
+        <v>15.38318956236046</v>
+      </c>
+      <c r="K1646">
+        <v>0.2146797393570679</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1647" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1647">
+        <v>1987</v>
+      </c>
+      <c r="D1647" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1647">
+        <v>13692838.54998626</v>
+      </c>
+      <c r="F1647">
+        <v>15905632.03568421</v>
+      </c>
+      <c r="G1647">
+        <v>20996187.46514403</v>
+      </c>
+      <c r="H1647">
+        <v>27586501.74829793</v>
+      </c>
+      <c r="I1647">
+        <v>31839280.24704614</v>
+      </c>
+      <c r="J1647">
+        <v>16.85959340595407</v>
+      </c>
+      <c r="K1647">
+        <v>0.2149286311941346</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1648" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1648">
+        <v>1988</v>
+      </c>
+      <c r="D1648" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1648">
+        <v>4281736.879460075</v>
+      </c>
+      <c r="F1648">
+        <v>4997424.281891531</v>
+      </c>
+      <c r="G1648">
+        <v>6612442.00135608</v>
+      </c>
+      <c r="H1648">
+        <v>8569444.790002674</v>
+      </c>
+      <c r="I1648">
+        <v>9838085.983092355</v>
+      </c>
+      <c r="J1648">
+        <v>15.6997535113265</v>
+      </c>
+      <c r="K1648">
+        <v>0.2127374630762351</v>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1649" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1649">
+        <v>1988</v>
+      </c>
+      <c r="D1649" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1649">
+        <v>14929406.07243081</v>
+      </c>
+      <c r="F1649">
+        <v>17411866.63774447</v>
+      </c>
+      <c r="G1649">
+        <v>23029769.3759234</v>
+      </c>
+      <c r="H1649">
+        <v>29878272.56827619</v>
+      </c>
+      <c r="I1649">
+        <v>34272708.35414407</v>
+      </c>
+      <c r="J1649">
+        <v>16.94776692947613</v>
+      </c>
+      <c r="K1649">
+        <v>0.2126818033904339</v>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1650" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1650">
+        <v>1989</v>
+      </c>
+      <c r="D1650" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1650">
+        <v>3321107.675431343</v>
+      </c>
+      <c r="F1650">
+        <v>3965777.491815557</v>
+      </c>
+      <c r="G1650">
+        <v>5255892.650372181</v>
+      </c>
+      <c r="H1650">
+        <v>6956870.942759967</v>
+      </c>
+      <c r="I1650">
+        <v>8032434.668609814</v>
+      </c>
+      <c r="J1650">
+        <v>15.47179787389326</v>
+      </c>
+      <c r="K1650">
+        <v>0.2258177173537249</v>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1651" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1651">
+        <v>1989</v>
+      </c>
+      <c r="D1651" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1651">
+        <v>12936967.38294633</v>
+      </c>
+      <c r="F1651">
+        <v>15425246.81578115</v>
+      </c>
+      <c r="G1651">
+        <v>20428222.09577327</v>
+      </c>
+      <c r="H1651">
+        <v>26993839.70144259</v>
+      </c>
+      <c r="I1651">
+        <v>31173238.26256579</v>
+      </c>
+      <c r="J1651">
+        <v>16.82839123307073</v>
+      </c>
+      <c r="K1651">
+        <v>0.2259669609733216</v>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1652" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1652">
+        <v>1990</v>
+      </c>
+      <c r="D1652" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1652">
+        <v>3358228.320023399</v>
+      </c>
+      <c r="F1652">
+        <v>4117450.467007722</v>
+      </c>
+      <c r="G1652">
+        <v>5703416.120519413</v>
+      </c>
+      <c r="H1652">
+        <v>7588696.066416173</v>
+      </c>
+      <c r="I1652">
+        <v>8925631.871704495</v>
+      </c>
+      <c r="J1652">
+        <v>15.54474976761064</v>
+      </c>
+      <c r="K1652">
+        <v>0.2490929962692115</v>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1653" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1653">
+        <v>1990</v>
+      </c>
+      <c r="D1653" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1653">
+        <v>14258003.8562558</v>
+      </c>
+      <c r="F1653">
+        <v>17520696.60634428</v>
+      </c>
+      <c r="G1653">
+        <v>24284030.5606596</v>
+      </c>
+      <c r="H1653">
+        <v>32333715.17060674</v>
+      </c>
+      <c r="I1653">
+        <v>38010822.84944257</v>
+      </c>
+      <c r="J1653">
+        <v>16.99389211903496</v>
+      </c>
+      <c r="K1653">
+        <v>0.2491937101237905</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1654" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1654">
+        <v>1991</v>
+      </c>
+      <c r="D1654" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1654">
+        <v>3974284.478672116</v>
+      </c>
+      <c r="F1654">
+        <v>4707201.742917323</v>
+      </c>
+      <c r="G1654">
+        <v>6325316.45091101</v>
+      </c>
+      <c r="H1654">
+        <v>8275035.651498336</v>
+      </c>
+      <c r="I1654">
+        <v>9547173.526688531</v>
+      </c>
+      <c r="J1654">
+        <v>15.65252366541745</v>
+      </c>
+      <c r="K1654">
+        <v>0.222383594874685</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1655" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1655">
+        <v>1991</v>
+      </c>
+      <c r="D1655" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1655">
+        <v>14437126.35382066</v>
+      </c>
+      <c r="F1655">
+        <v>17143122.4259267</v>
+      </c>
+      <c r="G1655">
+        <v>23008224.84390798</v>
+      </c>
+      <c r="H1655">
+        <v>30091184.22502956</v>
+      </c>
+      <c r="I1655">
+        <v>34865401.90820561</v>
+      </c>
+      <c r="J1655">
+        <v>16.94287012550583</v>
+      </c>
+      <c r="K1655">
+        <v>0.2225175757907376</v>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1656" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1656">
+        <v>1992</v>
+      </c>
+      <c r="D1656" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1656">
+        <v>3342566.720906795</v>
+      </c>
+      <c r="F1656">
+        <v>3869498.921195664</v>
+      </c>
+      <c r="G1656">
+        <v>5035222.73953272</v>
+      </c>
+      <c r="H1656">
+        <v>6588469.194094379</v>
+      </c>
+      <c r="I1656">
+        <v>7649954.638720646</v>
+      </c>
+      <c r="J1656">
+        <v>15.43418101631132</v>
+      </c>
+      <c r="K1656">
+        <v>0.2101925052447699</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1657" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1657">
+        <v>1992</v>
+      </c>
+      <c r="D1657" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1657">
+        <v>16481067.79445015</v>
+      </c>
+      <c r="F1657">
+        <v>19098084.71605313</v>
+      </c>
+      <c r="G1657">
+        <v>24836626.03560262</v>
+      </c>
+      <c r="H1657">
+        <v>32473684.10035883</v>
+      </c>
+      <c r="I1657">
+        <v>37636828.0678542</v>
+      </c>
+      <c r="J1657">
+        <v>17.02955319119579</v>
+      </c>
+      <c r="K1657">
+        <v>0.2105709139692491</v>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1658" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1658">
+        <v>1993</v>
+      </c>
+      <c r="D1658" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1658">
+        <v>3123905.047309109</v>
+      </c>
+      <c r="F1658">
+        <v>3669317.660838053</v>
+      </c>
+      <c r="G1658">
+        <v>4825138.185748193</v>
+      </c>
+      <c r="H1658">
+        <v>6358567.229984791</v>
+      </c>
+      <c r="I1658">
+        <v>7365837.842158394</v>
+      </c>
+      <c r="J1658">
+        <v>15.38788006071054</v>
+      </c>
+      <c r="K1658">
+        <v>0.2203894417488681</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1659" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1659">
+        <v>1993</v>
+      </c>
+      <c r="D1659" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1659">
+        <v>12392567.27848739</v>
+      </c>
+      <c r="F1659">
+        <v>14528991.18905801</v>
+      </c>
+      <c r="G1659">
+        <v>19095870.27971113</v>
+      </c>
+      <c r="H1659">
+        <v>25175318.98007808</v>
+      </c>
+      <c r="I1659">
+        <v>29178293.06446233</v>
+      </c>
+      <c r="J1659">
+        <v>16.76335170233166</v>
+      </c>
+      <c r="K1659">
+        <v>0.2204520653198951</v>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1660" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1660">
+        <v>1994</v>
+      </c>
+      <c r="D1660" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1660">
+        <v>3316732.533360514</v>
+      </c>
+      <c r="F1660">
+        <v>3888283.472958728</v>
+      </c>
+      <c r="G1660">
+        <v>5201389.827730021</v>
+      </c>
+      <c r="H1660">
+        <v>6840508.782426181</v>
+      </c>
+      <c r="I1660">
+        <v>7890119.095532334</v>
+      </c>
+      <c r="J1660">
+        <v>15.45770273767147</v>
+      </c>
+      <c r="K1660">
+        <v>0.2227643135535535</v>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1661" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1661">
+        <v>1994</v>
+      </c>
+      <c r="D1661" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1661">
+        <v>14705080.07291581</v>
+      </c>
+      <c r="F1661">
+        <v>17254961.11028068</v>
+      </c>
+      <c r="G1661">
+        <v>23125228.92353078</v>
+      </c>
+      <c r="H1661">
+        <v>30404003.06032223</v>
+      </c>
+      <c r="I1661">
+        <v>35058599.98383334</v>
+      </c>
+      <c r="J1661">
+        <v>16.94894020640862</v>
+      </c>
+      <c r="K1661">
+        <v>0.2229659788153538</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1662" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1662">
+        <v>1995</v>
+      </c>
+      <c r="D1662" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1662">
+        <v>3368346.774733688</v>
+      </c>
+      <c r="F1662">
+        <v>3963176.596513294</v>
+      </c>
+      <c r="G1662">
+        <v>5257570.653373843</v>
+      </c>
+      <c r="H1662">
+        <v>6900769.237221479</v>
+      </c>
+      <c r="I1662">
+        <v>8010147.113159342</v>
+      </c>
+      <c r="J1662">
+        <v>15.47119986410743</v>
+      </c>
+      <c r="K1662">
+        <v>0.2210069017268386</v>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1663" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1663">
+        <v>1995</v>
+      </c>
+      <c r="D1663" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1663">
+        <v>11283939.92157378</v>
+      </c>
+      <c r="F1663">
+        <v>13289691.81760303</v>
+      </c>
+      <c r="G1663">
+        <v>17651578.90529751</v>
+      </c>
+      <c r="H1663">
+        <v>23168429.31503875</v>
+      </c>
+      <c r="I1663">
+        <v>26906966.59926558</v>
+      </c>
+      <c r="J1663">
+        <v>16.68269401991979</v>
+      </c>
+      <c r="K1663">
+        <v>0.2211393071066926</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1664" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1664">
+        <v>1996</v>
+      </c>
+      <c r="D1664" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1664">
+        <v>3581887.256600029</v>
+      </c>
+      <c r="F1664">
+        <v>4234915.626436789</v>
+      </c>
+      <c r="G1664">
+        <v>5584435.257471466</v>
+      </c>
+      <c r="H1664">
+        <v>7271627.931406391</v>
+      </c>
+      <c r="I1664">
+        <v>8348752.560149286</v>
+      </c>
+      <c r="J1664">
+        <v>15.53041405992357</v>
+      </c>
+      <c r="K1664">
+        <v>0.2150281414326848</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1665" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1665">
+        <v>1996</v>
+      </c>
+      <c r="D1665" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1665">
+        <v>13417326.94429389</v>
+      </c>
+      <c r="F1665">
+        <v>15820202.41602409</v>
+      </c>
+      <c r="G1665">
+        <v>20876800.98880292</v>
+      </c>
+      <c r="H1665">
+        <v>27172042.82158632</v>
+      </c>
+      <c r="I1665">
+        <v>31271500.06834251</v>
+      </c>
+      <c r="J1665">
+        <v>16.84887907161136</v>
+      </c>
+      <c r="K1665">
+        <v>0.2153268323491026</v>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1666" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1666">
+        <v>1997</v>
+      </c>
+      <c r="D1666" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1666">
+        <v>3282656.150451817</v>
+      </c>
+      <c r="F1666">
+        <v>3762681.754895141</v>
+      </c>
+      <c r="G1666">
+        <v>4892878.241484175</v>
+      </c>
+      <c r="H1666">
+        <v>6374830.462965183</v>
+      </c>
+      <c r="I1666">
+        <v>7271689.736467638</v>
+      </c>
+      <c r="J1666">
+        <v>15.40207989694157</v>
+      </c>
+      <c r="K1666">
+        <v>0.204916882228708</v>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1667" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1667">
+        <v>1997</v>
+      </c>
+      <c r="D1667" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1667">
+        <v>13165031.34282757</v>
+      </c>
+      <c r="F1667">
+        <v>15080125.48186574</v>
+      </c>
+      <c r="G1667">
+        <v>19625892.77886292</v>
+      </c>
+      <c r="H1667">
+        <v>25534245.2942102</v>
+      </c>
+      <c r="I1667">
+        <v>29161776.45549842</v>
+      </c>
+      <c r="J1667">
+        <v>16.79070551081124</v>
+      </c>
+      <c r="K1667">
+        <v>0.2051667641211102</v>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1668" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1668">
+        <v>1998</v>
+      </c>
+      <c r="D1668" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1668">
+        <v>4269652.541590237</v>
+      </c>
+      <c r="F1668">
+        <v>5101593.947765756</v>
+      </c>
+      <c r="G1668">
+        <v>6835985.87272778</v>
+      </c>
+      <c r="H1668">
+        <v>9026513.92728951</v>
+      </c>
+      <c r="I1668">
+        <v>10431941.28234139</v>
+      </c>
+      <c r="J1668">
+        <v>15.73248802497726</v>
+      </c>
+      <c r="K1668">
+        <v>0.2271403645695379</v>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1669" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1669">
+        <v>1998</v>
+      </c>
+      <c r="D1669" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1669">
+        <v>12424075.25157644</v>
+      </c>
+      <c r="F1669">
+        <v>14833315.23313798</v>
+      </c>
+      <c r="G1669">
+        <v>19894944.77562792</v>
+      </c>
+      <c r="H1669">
+        <v>26235092.84373443</v>
+      </c>
+      <c r="I1669">
+        <v>30385160.10299029</v>
+      </c>
+      <c r="J1669">
+        <v>16.8002336319232</v>
+      </c>
+      <c r="K1669">
+        <v>0.2272127020788758</v>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1670" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1670">
+        <v>1999</v>
+      </c>
+      <c r="D1670" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1670">
+        <v>3664111.706926413</v>
+      </c>
+      <c r="F1670">
+        <v>4252309.978286935</v>
+      </c>
+      <c r="G1670">
+        <v>5552537.480334785</v>
+      </c>
+      <c r="H1670">
+        <v>7213248.980734223</v>
+      </c>
+      <c r="I1670">
+        <v>8295655.889692795</v>
+      </c>
+      <c r="J1670">
+        <v>15.52784710378027</v>
+      </c>
+      <c r="K1670">
+        <v>0.2099065867481821</v>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1671" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1671">
+        <v>1999</v>
+      </c>
+      <c r="D1671" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1671">
+        <v>12229652.57627213</v>
+      </c>
+      <c r="F1671">
+        <v>14237813.44404941</v>
+      </c>
+      <c r="G1671">
+        <v>18581855.21464733</v>
+      </c>
+      <c r="H1671">
+        <v>24083773.90840477</v>
+      </c>
+      <c r="I1671">
+        <v>27757505.19837016</v>
+      </c>
+      <c r="J1671">
+        <v>16.73516857384886</v>
+      </c>
+      <c r="K1671">
+        <v>0.2101767577362068</v>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1672" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1672">
+        <v>2000</v>
+      </c>
+      <c r="D1672" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1672">
+        <v>3952223.406916378</v>
+      </c>
+      <c r="F1672">
+        <v>4655132.457456141</v>
+      </c>
+      <c r="G1672">
+        <v>6120554.438926349</v>
+      </c>
+      <c r="H1672">
+        <v>8056971.936625229</v>
+      </c>
+      <c r="I1672">
+        <v>9320604.590690514</v>
+      </c>
+      <c r="J1672">
+        <v>15.62643170052966</v>
+      </c>
+      <c r="K1672">
+        <v>0.216637449314463</v>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1673" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1673">
+        <v>2000</v>
+      </c>
+      <c r="D1673" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1673">
+        <v>13506307.40197872</v>
+      </c>
+      <c r="F1673">
+        <v>15826159.72126016</v>
+      </c>
+      <c r="G1673">
+        <v>20836434.24425133</v>
+      </c>
+      <c r="H1673">
+        <v>27400421.16915268</v>
+      </c>
+      <c r="I1673">
+        <v>31738849.96404278</v>
+      </c>
+      <c r="J1673">
+        <v>16.85133664761515</v>
+      </c>
+      <c r="K1673">
+        <v>0.2167126021348621</v>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1674" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1674">
+        <v>2001</v>
+      </c>
+      <c r="D1674" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1674">
+        <v>3769076.976191878</v>
+      </c>
+      <c r="F1674">
+        <v>4454788.559501428</v>
+      </c>
+      <c r="G1674">
+        <v>5846482.962984202</v>
+      </c>
+      <c r="H1674">
+        <v>7569053.686593773</v>
+      </c>
+      <c r="I1674">
+        <v>8709200.283525106</v>
+      </c>
+      <c r="J1674">
+        <v>15.57486215450101</v>
+      </c>
+      <c r="K1674">
+        <v>0.2104624840344226</v>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1675" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1675">
+        <v>2001</v>
+      </c>
+      <c r="D1675" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1675">
+        <v>9085645.269605853</v>
+      </c>
+      <c r="F1675">
+        <v>10747441.96614908</v>
+      </c>
+      <c r="G1675">
+        <v>14111006.30551524</v>
+      </c>
+      <c r="H1675">
+        <v>18326760.82988553</v>
+      </c>
+      <c r="I1675">
+        <v>21036074.01510761</v>
+      </c>
+      <c r="J1675">
+        <v>16.45661734301349</v>
+      </c>
+      <c r="K1675">
+        <v>0.2108513280298243</v>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1676" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1676">
+        <v>2002</v>
+      </c>
+      <c r="D1676" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1676">
+        <v>3485955.455954673</v>
+      </c>
+      <c r="F1676">
+        <v>4075181.532392951</v>
+      </c>
+      <c r="G1676">
+        <v>5377488.260847866</v>
+      </c>
+      <c r="H1676">
+        <v>7108210.351226985</v>
+      </c>
+      <c r="I1676">
+        <v>8188121.374443583</v>
+      </c>
+      <c r="J1676">
+        <v>15.49561131146059</v>
+      </c>
+      <c r="K1676">
+        <v>0.219855292234477</v>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1677" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1677">
+        <v>2002</v>
+      </c>
+      <c r="D1677" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1677">
+        <v>9668538.386831712</v>
+      </c>
+      <c r="F1677">
+        <v>11346132.54263855</v>
+      </c>
+      <c r="G1677">
+        <v>14995521.84243108</v>
+      </c>
+      <c r="H1677">
+        <v>19778484.78309816</v>
+      </c>
+      <c r="I1677">
+        <v>22736997.47890008</v>
+      </c>
+      <c r="J1677">
+        <v>16.52019349588544</v>
+      </c>
+      <c r="K1677">
+        <v>0.2198540704215337</v>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1678" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1678">
+        <v>2003</v>
+      </c>
+      <c r="D1678" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1678">
+        <v>2816402.534121023</v>
+      </c>
+      <c r="F1678">
+        <v>3453125.085271208</v>
+      </c>
+      <c r="G1678">
+        <v>4674567.305599919</v>
+      </c>
+      <c r="H1678">
+        <v>6263636.85245263</v>
+      </c>
+      <c r="I1678">
+        <v>7256632.181988177</v>
+      </c>
+      <c r="J1678">
+        <v>15.35154499111925</v>
+      </c>
+      <c r="K1678">
+        <v>0.2441032191199694</v>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1679" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1679">
+        <v>2003</v>
+      </c>
+      <c r="D1679" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1679">
+        <v>9373030.950819878</v>
+      </c>
+      <c r="F1679">
+        <v>11617781.60964422</v>
+      </c>
+      <c r="G1679">
+        <v>16692883.64150232</v>
+      </c>
+      <c r="H1679">
+        <v>23251867.51887008</v>
+      </c>
+      <c r="I1679">
+        <v>27854174.80592765</v>
+      </c>
+      <c r="J1679">
+        <v>16.62066271673066</v>
+      </c>
+      <c r="K1679">
+        <v>0.2786916409806182</v>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1680" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1680">
+        <v>2004</v>
+      </c>
+      <c r="D1680" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1680">
+        <v>3618080.120767097</v>
+      </c>
+      <c r="F1680">
+        <v>4469836.686135093</v>
+      </c>
+      <c r="G1680">
+        <v>6006577.299689862</v>
+      </c>
+      <c r="H1680">
+        <v>7884918.484875664</v>
+      </c>
+      <c r="I1680">
+        <v>9123780.183790484</v>
+      </c>
+      <c r="J1680">
+        <v>15.59768196775817</v>
+      </c>
+      <c r="K1680">
+        <v>0.2391482787814742</v>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1681" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1681">
+        <v>2004</v>
+      </c>
+      <c r="D1681" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1681">
+        <v>15867744.59949763</v>
+      </c>
+      <c r="F1681">
+        <v>19720226.32588204</v>
+      </c>
+      <c r="G1681">
+        <v>26536858.47091942</v>
+      </c>
+      <c r="H1681">
+        <v>34852855.08370412</v>
+      </c>
+      <c r="I1681">
+        <v>40259848.70762175</v>
+      </c>
+      <c r="J1681">
+        <v>17.08258444254687</v>
+      </c>
+      <c r="K1681">
+        <v>0.2381754127096515</v>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1682" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1682">
+        <v>2005</v>
+      </c>
+      <c r="D1682" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1682">
+        <v>3578252.362942392</v>
+      </c>
+      <c r="F1682">
+        <v>4161108.510169006</v>
+      </c>
+      <c r="G1682">
+        <v>5558729.565628969</v>
+      </c>
+      <c r="H1682">
+        <v>7375864.119755542</v>
+      </c>
+      <c r="I1682">
+        <v>8462450.087486897</v>
+      </c>
+      <c r="J1682">
+        <v>15.52727014659016</v>
+      </c>
+      <c r="K1682">
+        <v>0.2238279398156349</v>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1683" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1683">
+        <v>2005</v>
+      </c>
+      <c r="D1683" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1683">
+        <v>17228281.53755536</v>
+      </c>
+      <c r="F1683">
+        <v>20076405.43381103</v>
+      </c>
+      <c r="G1683">
+        <v>26810315.42871083</v>
+      </c>
+      <c r="H1683">
+        <v>35562087.4595942</v>
+      </c>
+      <c r="I1683">
+        <v>40762825.74888458</v>
+      </c>
+      <c r="J1683">
+        <v>17.1008718367339</v>
+      </c>
+      <c r="K1683">
+        <v>0.2244266020274908</v>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1684" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1684">
+        <v>2006</v>
+      </c>
+      <c r="D1684" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1684">
+        <v>2494844.700393053</v>
+      </c>
+      <c r="F1684">
+        <v>2999654.789894851</v>
+      </c>
+      <c r="G1684">
+        <v>4053099.229052718</v>
+      </c>
+      <c r="H1684">
+        <v>5395369.299145278</v>
+      </c>
+      <c r="I1684">
+        <v>6302870.525714415</v>
+      </c>
+      <c r="J1684">
+        <v>15.21015395214026</v>
+      </c>
+      <c r="K1684">
+        <v>0.2371757890312232</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1685" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1685">
+        <v>2006</v>
+      </c>
+      <c r="D1685" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1685">
+        <v>11366289.38328892</v>
+      </c>
+      <c r="F1685">
+        <v>13690854.19223271</v>
+      </c>
+      <c r="G1685">
+        <v>18517264.95475036</v>
+      </c>
+      <c r="H1685">
+        <v>24675535.89671074</v>
+      </c>
+      <c r="I1685">
+        <v>28922542.12549086</v>
+      </c>
+      <c r="J1685">
+        <v>16.72841740497072</v>
+      </c>
+      <c r="K1685">
+        <v>0.2386907706959679</v>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1686" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1686">
+        <v>2007</v>
+      </c>
+      <c r="D1686" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1686">
+        <v>2685791.446319455</v>
+      </c>
+      <c r="F1686">
+        <v>3230559.62546269</v>
+      </c>
+      <c r="G1686">
+        <v>4323950.494703573</v>
+      </c>
+      <c r="H1686">
+        <v>5816277.91911449</v>
+      </c>
+      <c r="I1686">
+        <v>6766526.820619787</v>
+      </c>
+      <c r="J1686">
+        <v>15.27726299693085</v>
+      </c>
+      <c r="K1686">
+        <v>0.235321845383751</v>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1687" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1687">
+        <v>2007</v>
+      </c>
+      <c r="D1687" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1687">
+        <v>11554584.93495823</v>
+      </c>
+      <c r="F1687">
+        <v>13925011.8038852</v>
+      </c>
+      <c r="G1687">
+        <v>18616581.97181799</v>
+      </c>
+      <c r="H1687">
+        <v>25021203.64956731</v>
+      </c>
+      <c r="I1687">
+        <v>29232952.5364037</v>
+      </c>
+      <c r="J1687">
+        <v>16.73826725846196</v>
+      </c>
+      <c r="K1687">
+        <v>0.2357764631343205</v>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1688" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1688">
+        <v>2008</v>
+      </c>
+      <c r="D1688" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1688">
+        <v>2099363.13554646</v>
+      </c>
+      <c r="F1688">
+        <v>2711373.631268648</v>
+      </c>
+      <c r="G1688">
+        <v>3998770.305614973</v>
+      </c>
+      <c r="H1688">
+        <v>5601991.840877381</v>
+      </c>
+      <c r="I1688">
+        <v>6611041.661590525</v>
+      </c>
+      <c r="J1688">
+        <v>15.18226566903418</v>
+      </c>
+      <c r="K1688">
+        <v>0.2964477375957951</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1689" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1689">
+        <v>2008</v>
+      </c>
+      <c r="D1689" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1689">
+        <v>11276412.54660887</v>
+      </c>
+      <c r="F1689">
+        <v>14586469.7136688</v>
+      </c>
+      <c r="G1689">
+        <v>21533854.73789731</v>
+      </c>
+      <c r="H1689">
+        <v>30238741.76172395</v>
+      </c>
+      <c r="I1689">
+        <v>35562820.09246989</v>
+      </c>
+      <c r="J1689">
+        <v>16.86613984212758</v>
+      </c>
+      <c r="K1689">
+        <v>0.2965031921097832</v>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1690" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1690">
+        <v>2009</v>
+      </c>
+      <c r="D1690" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1690">
+        <v>3340410.180251749</v>
+      </c>
+      <c r="F1690">
+        <v>3927519.444759763</v>
+      </c>
+      <c r="G1690">
+        <v>5184137.89950406</v>
+      </c>
+      <c r="H1690">
+        <v>6740742.738211529</v>
+      </c>
+      <c r="I1690">
+        <v>7808869.907492405</v>
+      </c>
+      <c r="J1690">
+        <v>15.45591270760151</v>
+      </c>
+      <c r="K1690">
+        <v>0.2140896262672543</v>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1691" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1691">
+        <v>2009</v>
+      </c>
+      <c r="D1691" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1691">
+        <v>17649600.27620659</v>
+      </c>
+      <c r="F1691">
+        <v>20811979.13832993</v>
+      </c>
+      <c r="G1691">
+        <v>27528882.11320371</v>
+      </c>
+      <c r="H1691">
+        <v>35880078.97313954</v>
+      </c>
+      <c r="I1691">
+        <v>41582182.6120545</v>
+      </c>
+      <c r="J1691">
+        <v>17.1260882510462</v>
+      </c>
+      <c r="K1691">
+        <v>0.2160838785392281</v>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1692" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1692">
+        <v>2010</v>
+      </c>
+      <c r="D1692" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1692">
+        <v>2976831.526933274</v>
+      </c>
+      <c r="F1692">
+        <v>3486641.155694488</v>
+      </c>
+      <c r="G1692">
+        <v>4640544.420922572</v>
+      </c>
+      <c r="H1692">
+        <v>6138580.227232819</v>
+      </c>
+      <c r="I1692">
+        <v>7225704.256957059</v>
+      </c>
+      <c r="J1692">
+        <v>15.34749895980328</v>
+      </c>
+      <c r="K1692">
+        <v>0.2256888772837273</v>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1693" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1693">
+        <v>2010</v>
+      </c>
+      <c r="D1693" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1693">
+        <v>14025984.92943329</v>
+      </c>
+      <c r="F1693">
+        <v>16593335.91387923</v>
+      </c>
+      <c r="G1693">
+        <v>22234150.84491908</v>
+      </c>
+      <c r="H1693">
+        <v>29590902.37797136</v>
+      </c>
+      <c r="I1693">
+        <v>35051698.89350168</v>
+      </c>
+      <c r="J1693">
+        <v>16.91527446490888</v>
+      </c>
+      <c r="K1693">
+        <v>0.2320861594668573</v>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1694" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1694">
+        <v>2011</v>
+      </c>
+      <c r="D1694" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1694">
+        <v>4329787.985764572</v>
+      </c>
+      <c r="F1694">
+        <v>5063917.491767801</v>
+      </c>
+      <c r="G1694">
+        <v>6742218.791826479</v>
+      </c>
+      <c r="H1694">
+        <v>8832855.215518948</v>
+      </c>
+      <c r="I1694">
+        <v>10136656.12961181</v>
+      </c>
+      <c r="J1694">
+        <v>15.71783002707006</v>
+      </c>
+      <c r="K1694">
+        <v>0.2185672077236387</v>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1695" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1695">
+        <v>2011</v>
+      </c>
+      <c r="D1695" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1695">
+        <v>18926377.99834042</v>
+      </c>
+      <c r="F1695">
+        <v>22189505.75879569</v>
+      </c>
+      <c r="G1695">
+        <v>29530711.9121071</v>
+      </c>
+      <c r="H1695">
+        <v>38751313.89688665</v>
+      </c>
+      <c r="I1695">
+        <v>44580924.58741403</v>
+      </c>
+      <c r="J1695">
+        <v>17.19556379640536</v>
+      </c>
+      <c r="K1695">
+        <v>0.2189034469378169</v>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1696" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1696">
+        <v>2012</v>
+      </c>
+      <c r="D1696" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1696">
+        <v>1909159.02409707</v>
+      </c>
+      <c r="F1696">
+        <v>2865764.868737991</v>
+      </c>
+      <c r="G1696">
+        <v>4922929.134572131</v>
+      </c>
+      <c r="H1696">
+        <v>7375408.501327167</v>
+      </c>
+      <c r="I1696">
+        <v>8910673.546186687</v>
+      </c>
+      <c r="J1696">
+        <v>15.36707371100145</v>
+      </c>
+      <c r="K1696">
+        <v>0.388130166175881</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1697" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1697">
+        <v>2012</v>
+      </c>
+      <c r="D1697" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1697">
+        <v>5617515.764718611</v>
+      </c>
+      <c r="F1697">
+        <v>8432207.686023051</v>
+      </c>
+      <c r="G1697">
+        <v>14549435.36590741</v>
+      </c>
+      <c r="H1697">
+        <v>21899857.64347279</v>
+      </c>
+      <c r="I1697">
+        <v>26464197.58468445</v>
+      </c>
+      <c r="J1697">
+        <v>16.45062378357545</v>
+      </c>
+      <c r="K1697">
+        <v>0.389851056256399</v>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1698" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1698">
+        <v>2013</v>
+      </c>
+      <c r="D1698" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1698">
+        <v>4434094.195948835</v>
+      </c>
+      <c r="F1698">
+        <v>5412795.529471599</v>
+      </c>
+      <c r="G1698">
+        <v>7374124.857867904</v>
+      </c>
+      <c r="H1698">
+        <v>9714422.156270714</v>
+      </c>
+      <c r="I1698">
+        <v>11109278.07871072</v>
+      </c>
+      <c r="J1698">
+        <v>15.79995928654929</v>
+      </c>
+      <c r="K1698">
+        <v>0.2384539878826542</v>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1699" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1699">
+        <v>2013</v>
+      </c>
+      <c r="D1699" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1699">
+        <v>23270267.70823</v>
+      </c>
+      <c r="F1699">
+        <v>28156822.91510434</v>
+      </c>
+      <c r="G1699">
+        <v>40582933.1572345</v>
+      </c>
+      <c r="H1699">
+        <v>55960749.88130488</v>
+      </c>
+      <c r="I1699">
+        <v>65730607.04234231</v>
+      </c>
+      <c r="J1699">
+        <v>17.50590925939347</v>
+      </c>
+      <c r="K1699">
+        <v>0.2705592189759936</v>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1700" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1700">
+        <v>2014</v>
+      </c>
+      <c r="D1700" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1700">
+        <v>2478248.108144092</v>
+      </c>
+      <c r="F1700">
+        <v>2923463.782027422</v>
+      </c>
+      <c r="G1700">
+        <v>3918246.25103241</v>
+      </c>
+      <c r="H1700">
+        <v>5230098.396770614</v>
+      </c>
+      <c r="I1700">
+        <v>6183060.259338924</v>
+      </c>
+      <c r="J1700">
+        <v>15.17921947045908</v>
+      </c>
+      <c r="K1700">
+        <v>0.2314980361808116</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1701" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1701">
+        <v>2014</v>
+      </c>
+      <c r="D1701" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1701">
+        <v>11517823.99999848</v>
+      </c>
+      <c r="F1701">
+        <v>13630748.60933681</v>
+      </c>
+      <c r="G1701">
+        <v>18256113.46237033</v>
+      </c>
+      <c r="H1701">
+        <v>24556000.80202623</v>
+      </c>
+      <c r="I1701">
+        <v>29195583.36060082</v>
+      </c>
+      <c r="J1701">
+        <v>16.72032963765974</v>
+      </c>
+      <c r="K1701">
+        <v>0.2342310795875806</v>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1702" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1702">
+        <v>2015</v>
+      </c>
+      <c r="D1702" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1702">
+        <v>1678639.24917986</v>
+      </c>
+      <c r="F1702">
+        <v>2051141.536011856</v>
+      </c>
+      <c r="G1702">
+        <v>2903806.435647123</v>
+      </c>
+      <c r="H1702">
+        <v>4072280.438285965</v>
+      </c>
+      <c r="I1702">
+        <v>4878178.43586579</v>
+      </c>
+      <c r="J1702">
+        <v>14.8773252011731</v>
+      </c>
+      <c r="K1702">
+        <v>0.2775155954137932</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1703" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1703">
+        <v>2015</v>
+      </c>
+      <c r="D1703" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1703">
+        <v>7832878.827259881</v>
+      </c>
+      <c r="F1703">
+        <v>9585852.84808605</v>
+      </c>
+      <c r="G1703">
+        <v>13580161.78578397</v>
+      </c>
+      <c r="H1703">
+        <v>19021738.14288019</v>
+      </c>
+      <c r="I1703">
+        <v>22867605.0912721</v>
+      </c>
+      <c r="J1703">
+        <v>16.41878310238734</v>
+      </c>
+      <c r="K1703">
+        <v>0.2776480159900287</v>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1704" t="inlineStr">
+        <is>
+          <t>SYO</t>
+        </is>
+      </c>
+      <c r="C1704">
+        <v>2016</v>
+      </c>
+      <c r="D1704" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1704">
+        <v>2758605.942105969</v>
+      </c>
+      <c r="F1704">
+        <v>3364048.014361665</v>
+      </c>
+      <c r="G1704">
+        <v>4509511.812782854</v>
+      </c>
+      <c r="H1704">
+        <v>5976254.612802376</v>
+      </c>
+      <c r="I1704">
+        <v>6931838.827689946</v>
+      </c>
+      <c r="J1704">
+        <v>15.31257779338275</v>
+      </c>
+      <c r="K1704">
+        <v>0.2470146367591065</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="inlineStr">
+        <is>
+          <t>Sproat</t>
+        </is>
+      </c>
+      <c r="B1705" t="inlineStr">
+        <is>
+          <t>SYB</t>
+        </is>
+      </c>
+      <c r="C1705">
+        <v>2016</v>
+      </c>
+      <c r="D1705" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E1705">
+        <v>12638280.53272653</v>
+      </c>
+      <c r="F1705">
+        <v>15418570.13124213</v>
+      </c>
+      <c r="G1705">
+        <v>20648057.67879003</v>
+      </c>
+      <c r="H1705">
+        <v>27438645.63553494</v>
+      </c>
+      <c r="I1705">
+        <v>31926832.59064793</v>
+      </c>
+      <c r="J1705">
+        <v>16.83582800412618</v>
+      </c>
+      <c r="K1705">
+        <v>0.2458645176841258</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
